--- a/11_27_19_Cobi_Combo.xlsx
+++ b/11_27_19_Cobi_Combo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="126">
   <si>
     <t>Block Type</t>
   </si>
@@ -375,6 +375,36 @@
   </si>
   <si>
     <t>H3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Analysis Type</t>
+  </si>
+  <si>
+    <t>Singleplex</t>
+  </si>
+  <si>
+    <t>Endogenous Control</t>
+  </si>
+  <si>
+    <t>RQ Min/Max Standard Deviations</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Reference Sample</t>
   </si>
 </sst>
 </file>
@@ -689,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AD90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:AD65"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,14 +889,14 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
+      <c r="G9">
+        <v>13.869132041931152</v>
+      </c>
+      <c r="H9">
+        <v>11.131587982177734</v>
+      </c>
+      <c r="I9">
+        <v>17.279909133911133</v>
       </c>
       <c r="J9">
         <v>27.377616882324219</v>
@@ -892,8 +922,8 @@
       <c r="Q9" t="s">
         <v>11</v>
       </c>
-      <c r="R9" t="s">
-        <v>11</v>
+      <c r="R9">
+        <v>-3.7938055992126465</v>
       </c>
       <c r="S9" t="b">
         <v>1</v>
@@ -951,14 +981,14 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
+      <c r="G10">
+        <v>13.869132041931152</v>
+      </c>
+      <c r="H10">
+        <v>11.131587982177734</v>
+      </c>
+      <c r="I10">
+        <v>17.279909133911133</v>
       </c>
       <c r="J10">
         <v>27.654796600341797</v>
@@ -984,8 +1014,8 @@
       <c r="Q10" t="s">
         <v>11</v>
       </c>
-      <c r="R10" t="s">
-        <v>11</v>
+      <c r="R10">
+        <v>-3.7938055992126465</v>
       </c>
       <c r="S10" t="b">
         <v>1</v>
@@ -1043,14 +1073,14 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
+      <c r="G11">
+        <v>13.869132041931152</v>
+      </c>
+      <c r="H11">
+        <v>11.131587982177734</v>
+      </c>
+      <c r="I11">
+        <v>17.279909133911133</v>
       </c>
       <c r="J11">
         <v>27.524932861328125</v>
@@ -1076,8 +1106,8 @@
       <c r="Q11" t="s">
         <v>11</v>
       </c>
-      <c r="R11" t="s">
-        <v>11</v>
+      <c r="R11">
+        <v>-3.7938055992126465</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -1135,14 +1165,14 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
+      <c r="G12">
+        <v>0.42576530575752258</v>
+      </c>
+      <c r="H12">
+        <v>0.27903947234153748</v>
+      </c>
+      <c r="I12">
+        <v>0.6496431827545166</v>
       </c>
       <c r="J12">
         <v>34.325496673583984</v>
@@ -1168,8 +1198,8 @@
       <c r="Q12" t="s">
         <v>11</v>
       </c>
-      <c r="R12" t="s">
-        <v>11</v>
+      <c r="R12">
+        <v>1.2318696975708008</v>
       </c>
       <c r="S12" t="b">
         <v>1</v>
@@ -1227,14 +1257,14 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
+      <c r="G13">
+        <v>0.42576530575752258</v>
+      </c>
+      <c r="H13">
+        <v>0.27903947234153748</v>
+      </c>
+      <c r="I13">
+        <v>0.6496431827545166</v>
       </c>
       <c r="J13">
         <v>34.989982604980469</v>
@@ -1260,8 +1290,8 @@
       <c r="Q13" t="s">
         <v>11</v>
       </c>
-      <c r="R13" t="s">
-        <v>11</v>
+      <c r="R13">
+        <v>1.2318696975708008</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
@@ -1319,14 +1349,14 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>11</v>
+      <c r="G14">
+        <v>0.97415828704833984</v>
+      </c>
+      <c r="H14">
+        <v>0.62940305471420288</v>
+      </c>
+      <c r="I14">
+        <v>1.5077531337738037</v>
       </c>
       <c r="J14">
         <v>33.830970764160156</v>
@@ -1352,8 +1382,8 @@
       <c r="Q14" t="s">
         <v>11</v>
       </c>
-      <c r="R14" t="s">
-        <v>11</v>
+      <c r="R14">
+        <v>3.7771862000226974E-2</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
@@ -1411,14 +1441,14 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>11</v>
+      <c r="G15">
+        <v>0.97415828704833984</v>
+      </c>
+      <c r="H15">
+        <v>0.62940305471420288</v>
+      </c>
+      <c r="I15">
+        <v>1.5077531337738037</v>
       </c>
       <c r="J15">
         <v>33.881256103515625</v>
@@ -1444,8 +1474,8 @@
       <c r="Q15" t="s">
         <v>11</v>
       </c>
-      <c r="R15" t="s">
-        <v>11</v>
+      <c r="R15">
+        <v>3.7771862000226974E-2</v>
       </c>
       <c r="S15" t="b">
         <v>1</v>
@@ -1503,14 +1533,14 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
-        <v>11</v>
+      <c r="G16">
+        <v>0.97415828704833984</v>
+      </c>
+      <c r="H16">
+        <v>0.62940305471420288</v>
+      </c>
+      <c r="I16">
+        <v>1.5077531337738037</v>
       </c>
       <c r="J16">
         <v>33.006660461425781</v>
@@ -1536,8 +1566,8 @@
       <c r="Q16" t="s">
         <v>11</v>
       </c>
-      <c r="R16" t="s">
-        <v>11</v>
+      <c r="R16">
+        <v>3.7771862000226974E-2</v>
       </c>
       <c r="S16" t="b">
         <v>1</v>
@@ -2147,14 +2177,14 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
-        <v>11</v>
+      <c r="G23">
+        <v>0.63042420148849487</v>
+      </c>
+      <c r="H23">
+        <v>0.49010881781578064</v>
+      </c>
+      <c r="I23">
+        <v>0.81091099977493286</v>
       </c>
       <c r="J23">
         <v>34.319065093994141</v>
@@ -2180,8 +2210,8 @@
       <c r="Q23" t="s">
         <v>11</v>
       </c>
-      <c r="R23" t="s">
-        <v>11</v>
+      <c r="R23">
+        <v>0.66560524702072144</v>
       </c>
       <c r="S23" t="b">
         <v>1</v>
@@ -2239,14 +2269,14 @@
       <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
+      <c r="G24">
+        <v>0.63042420148849487</v>
+      </c>
+      <c r="H24">
+        <v>0.49010881781578064</v>
+      </c>
+      <c r="I24">
+        <v>0.81091099977493286</v>
       </c>
       <c r="J24">
         <v>34.417179107666016</v>
@@ -2272,8 +2302,8 @@
       <c r="Q24" t="s">
         <v>11</v>
       </c>
-      <c r="R24" t="s">
-        <v>11</v>
+      <c r="R24">
+        <v>0.66560524702072144</v>
       </c>
       <c r="S24" t="b">
         <v>1</v>
@@ -2331,14 +2361,14 @@
       <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
+      <c r="G25">
+        <v>0.63042420148849487</v>
+      </c>
+      <c r="H25">
+        <v>0.49010881781578064</v>
+      </c>
+      <c r="I25">
+        <v>0.81091099977493286</v>
       </c>
       <c r="J25">
         <v>34.737819671630859</v>
@@ -2364,8 +2394,8 @@
       <c r="Q25" t="s">
         <v>11</v>
       </c>
-      <c r="R25" t="s">
-        <v>11</v>
+      <c r="R25">
+        <v>0.66560524702072144</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
@@ -2423,14 +2453,14 @@
       <c r="F26" t="s">
         <v>17</v>
       </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.85310930013656616</v>
+      </c>
+      <c r="I26">
+        <v>1.1721826791763306</v>
       </c>
       <c r="J26">
         <v>32.122158050537109</v>
@@ -2456,8 +2486,8 @@
       <c r="Q26" t="s">
         <v>11</v>
       </c>
-      <c r="R26" t="s">
-        <v>11</v>
+      <c r="R26">
+        <v>0</v>
       </c>
       <c r="S26" t="b">
         <v>1</v>
@@ -2515,14 +2545,14 @@
       <c r="F27" t="s">
         <v>17</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.85310930013656616</v>
+      </c>
+      <c r="I27">
+        <v>1.1721826791763306</v>
       </c>
       <c r="J27">
         <v>31.86176872253418</v>
@@ -2548,8 +2578,8 @@
       <c r="Q27" t="s">
         <v>11</v>
       </c>
-      <c r="R27" t="s">
-        <v>11</v>
+      <c r="R27">
+        <v>0</v>
       </c>
       <c r="S27" t="b">
         <v>1</v>
@@ -2975,32 +3005,32 @@
       <c r="F32" t="s">
         <v>17</v>
       </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>11</v>
+      <c r="G32">
+        <v>1.0766302347183228</v>
+      </c>
+      <c r="H32">
+        <v>0.59848999977111816</v>
+      </c>
+      <c r="I32">
+        <v>1.9367619752883911</v>
       </c>
       <c r="J32">
         <v>34.199562072753906</v>
       </c>
       <c r="K32">
-        <v>34.424148559570312</v>
+        <v>34.868343353271484</v>
       </c>
       <c r="L32">
-        <v>0.31761324405670166</v>
+        <v>0.80147957801818848</v>
       </c>
       <c r="M32" t="s">
         <v>11</v>
       </c>
       <c r="N32">
-        <v>17.779542922973633</v>
+        <v>18.223739624023438</v>
       </c>
       <c r="O32">
-        <v>0.4196753203868866</v>
+        <v>0.84712380170822144</v>
       </c>
       <c r="P32" t="s">
         <v>11</v>
@@ -3008,8 +3038,8 @@
       <c r="Q32" t="s">
         <v>11</v>
       </c>
-      <c r="R32" t="s">
-        <v>11</v>
+      <c r="R32">
+        <v>-0.10652288049459457</v>
       </c>
       <c r="S32" t="b">
         <v>1</v>
@@ -3042,7 +3072,7 @@
         <v>11</v>
       </c>
       <c r="AC32" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD32" t="s">
         <v>18</v>
@@ -3067,32 +3097,32 @@
       <c r="F33" t="s">
         <v>17</v>
       </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
+      <c r="G33">
+        <v>1.0766302347183228</v>
+      </c>
+      <c r="H33">
+        <v>0.59848999977111816</v>
+      </c>
+      <c r="I33">
+        <v>1.9367619752883911</v>
       </c>
       <c r="J33">
         <v>34.648735046386719</v>
       </c>
       <c r="K33">
-        <v>34.424148559570312</v>
+        <v>34.868343353271484</v>
       </c>
       <c r="L33">
-        <v>0.31761324405670166</v>
+        <v>0.80147957801818848</v>
       </c>
       <c r="M33" t="s">
         <v>11</v>
       </c>
       <c r="N33">
-        <v>17.779542922973633</v>
+        <v>18.223739624023438</v>
       </c>
       <c r="O33">
-        <v>0.4196753203868866</v>
+        <v>0.84712380170822144</v>
       </c>
       <c r="P33" t="s">
         <v>11</v>
@@ -3100,8 +3130,8 @@
       <c r="Q33" t="s">
         <v>11</v>
       </c>
-      <c r="R33" t="s">
-        <v>11</v>
+      <c r="R33">
+        <v>-0.10652288049459457</v>
       </c>
       <c r="S33" t="b">
         <v>1</v>
@@ -3134,7 +3164,7 @@
         <v>11</v>
       </c>
       <c r="AC33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD33" t="s">
         <v>18</v>
@@ -3142,10 +3172,10 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -3159,32 +3189,32 @@
       <c r="F34" t="s">
         <v>17</v>
       </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" t="s">
-        <v>11</v>
+      <c r="G34">
+        <v>1.0766302347183228</v>
+      </c>
+      <c r="H34">
+        <v>0.59848999977111816</v>
+      </c>
+      <c r="I34">
+        <v>1.9367619752883911</v>
       </c>
       <c r="J34">
-        <v>32.513992309570312</v>
+        <v>35.756736755371094</v>
       </c>
       <c r="K34">
-        <v>32.603313446044922</v>
+        <v>34.868343353271484</v>
       </c>
       <c r="L34">
-        <v>0.31420910358428955</v>
+        <v>0.80147957801818848</v>
       </c>
       <c r="M34" t="s">
         <v>11</v>
       </c>
       <c r="N34">
-        <v>17.276710510253906</v>
+        <v>18.223739624023438</v>
       </c>
       <c r="O34">
-        <v>0.34521925449371338</v>
+        <v>0.84712380170822144</v>
       </c>
       <c r="P34" t="s">
         <v>11</v>
@@ -3192,8 +3222,8 @@
       <c r="Q34" t="s">
         <v>11</v>
       </c>
-      <c r="R34" t="s">
-        <v>11</v>
+      <c r="R34">
+        <v>-0.10652288049459457</v>
       </c>
       <c r="S34" t="b">
         <v>1</v>
@@ -3208,33 +3238,33 @@
         <v>3</v>
       </c>
       <c r="W34">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34">
-        <v>88.271476745605469</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>11</v>
+        <v>82.755821228027344</v>
+      </c>
+      <c r="Z34">
+        <v>88.122406005859375</v>
+      </c>
+      <c r="AA34">
+        <v>68.594017028808594</v>
       </c>
       <c r="AB34" t="s">
         <v>11</v>
       </c>
       <c r="AC34" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD34" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
         <v>81</v>
@@ -3251,17 +3281,17 @@
       <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" t="s">
-        <v>11</v>
+      <c r="G35">
+        <v>2.0756330490112305</v>
+      </c>
+      <c r="H35">
+        <v>1.6339141130447388</v>
+      </c>
+      <c r="I35">
+        <v>2.6367678642272949</v>
       </c>
       <c r="J35">
-        <v>32.343433380126953</v>
+        <v>32.513992309570312</v>
       </c>
       <c r="K35">
         <v>32.603313446044922</v>
@@ -3284,8 +3314,8 @@
       <c r="Q35" t="s">
         <v>11</v>
       </c>
-      <c r="R35" t="s">
-        <v>11</v>
+      <c r="R35">
+        <v>-1.0535513162612915</v>
       </c>
       <c r="S35" t="b">
         <v>1</v>
@@ -3300,13 +3330,13 @@
         <v>3</v>
       </c>
       <c r="W35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>88.579505920410156</v>
+        <v>88.271476745605469</v>
       </c>
       <c r="Z35" t="s">
         <v>11</v>
@@ -3326,7 +3356,7 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
@@ -3343,17 +3373,17 @@
       <c r="F36" t="s">
         <v>17</v>
       </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="s">
-        <v>11</v>
+      <c r="G36">
+        <v>2.0756330490112305</v>
+      </c>
+      <c r="H36">
+        <v>1.6339141130447388</v>
+      </c>
+      <c r="I36">
+        <v>2.6367678642272949</v>
       </c>
       <c r="J36">
-        <v>32.952510833740234</v>
+        <v>32.343433380126953</v>
       </c>
       <c r="K36">
         <v>32.603313446044922</v>
@@ -3376,8 +3406,8 @@
       <c r="Q36" t="s">
         <v>11</v>
       </c>
-      <c r="R36" t="s">
-        <v>11</v>
+      <c r="R36">
+        <v>-1.0535513162612915</v>
       </c>
       <c r="S36" t="b">
         <v>1</v>
@@ -3392,7 +3422,7 @@
         <v>3</v>
       </c>
       <c r="W36">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X36">
         <v>1</v>
@@ -3400,8 +3430,8 @@
       <c r="Y36">
         <v>88.579505920410156</v>
       </c>
-      <c r="Z36">
-        <v>64.137802124023438</v>
+      <c r="Z36" t="s">
+        <v>11</v>
       </c>
       <c r="AA36" t="s">
         <v>11</v>
@@ -3413,15 +3443,15 @@
         <v>18</v>
       </c>
       <c r="AD36" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -3435,32 +3465,32 @@
       <c r="F37" t="s">
         <v>17</v>
       </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" t="s">
-        <v>11</v>
+      <c r="G37">
+        <v>2.0756330490112305</v>
+      </c>
+      <c r="H37">
+        <v>1.6339141130447388</v>
+      </c>
+      <c r="I37">
+        <v>2.6367678642272949</v>
       </c>
       <c r="J37">
-        <v>33.798820495605469</v>
+        <v>32.952510833740234</v>
       </c>
       <c r="K37">
-        <v>33.822837829589844</v>
+        <v>32.603313446044922</v>
       </c>
       <c r="L37">
-        <v>3.3962942659854889E-2</v>
+        <v>0.31420910358428955</v>
       </c>
       <c r="M37" t="s">
         <v>11</v>
       </c>
       <c r="N37">
-        <v>18.436460494995117</v>
+        <v>17.276710510253906</v>
       </c>
       <c r="O37">
-        <v>5.5910874158143997E-2</v>
+        <v>0.34521925449371338</v>
       </c>
       <c r="P37" t="s">
         <v>11</v>
@@ -3468,8 +3498,8 @@
       <c r="Q37" t="s">
         <v>11</v>
       </c>
-      <c r="R37" t="s">
-        <v>11</v>
+      <c r="R37">
+        <v>-1.0535513162612915</v>
       </c>
       <c r="S37" t="b">
         <v>1</v>
@@ -3484,16 +3514,16 @@
         <v>3</v>
       </c>
       <c r="W37">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>88.276123046875</v>
+        <v>88.579505920410156</v>
       </c>
       <c r="Z37">
-        <v>82.314460754394531</v>
+        <v>64.137802124023438</v>
       </c>
       <c r="AA37" t="s">
         <v>11</v>
@@ -3510,7 +3540,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>85</v>
@@ -3527,32 +3557,32 @@
       <c r="F38" t="s">
         <v>17</v>
       </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
-        <v>11</v>
+      <c r="G38">
+        <v>1.2087968587875366</v>
+      </c>
+      <c r="H38">
+        <v>0.76517170667648315</v>
+      </c>
+      <c r="I38">
+        <v>1.909623384475708</v>
       </c>
       <c r="J38">
-        <v>33.846851348876953</v>
+        <v>33.798820495605469</v>
       </c>
       <c r="K38">
-        <v>33.822837829589844</v>
+        <v>33.443065643310547</v>
       </c>
       <c r="L38">
-        <v>3.3962942659854889E-2</v>
+        <v>0.65821969509124756</v>
       </c>
       <c r="M38" t="s">
         <v>11</v>
       </c>
       <c r="N38">
-        <v>18.436460494995117</v>
+        <v>18.056690216064453</v>
       </c>
       <c r="O38">
-        <v>5.5910874158143997E-2</v>
+        <v>0.65971636772155762</v>
       </c>
       <c r="P38" t="s">
         <v>11</v>
@@ -3560,8 +3590,8 @@
       <c r="Q38" t="s">
         <v>11</v>
       </c>
-      <c r="R38" t="s">
-        <v>11</v>
+      <c r="R38">
+        <v>-0.27357181906700134</v>
       </c>
       <c r="S38" t="b">
         <v>1</v>
@@ -3576,16 +3606,16 @@
         <v>3</v>
       </c>
       <c r="W38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X38">
         <v>1</v>
       </c>
       <c r="Y38">
-        <v>88.426948547363281</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>11</v>
+        <v>88.276123046875</v>
+      </c>
+      <c r="Z38">
+        <v>82.314460754394531</v>
       </c>
       <c r="AA38" t="s">
         <v>11</v>
@@ -3594,18 +3624,18 @@
         <v>11</v>
       </c>
       <c r="AC38" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD38" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -3619,32 +3649,32 @@
       <c r="F39" t="s">
         <v>17</v>
       </c>
-      <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" t="s">
-        <v>11</v>
+      <c r="G39">
+        <v>1.2087968587875366</v>
+      </c>
+      <c r="H39">
+        <v>0.76517170667648315</v>
+      </c>
+      <c r="I39">
+        <v>1.909623384475708</v>
       </c>
       <c r="J39">
-        <v>34.849483489990234</v>
+        <v>32.683525085449219</v>
       </c>
       <c r="K39">
-        <v>34.453868865966797</v>
+        <v>33.443065643310547</v>
       </c>
       <c r="L39">
-        <v>0.55948358774185181</v>
+        <v>0.65821969509124756</v>
       </c>
       <c r="M39" t="s">
         <v>11</v>
       </c>
       <c r="N39">
-        <v>18.787979125976562</v>
+        <v>18.056690216064453</v>
       </c>
       <c r="O39">
-        <v>0.58223974704742432</v>
+        <v>0.65971636772155762</v>
       </c>
       <c r="P39" t="s">
         <v>11</v>
@@ -3652,8 +3682,8 @@
       <c r="Q39" t="s">
         <v>11</v>
       </c>
-      <c r="R39" t="s">
-        <v>11</v>
+      <c r="R39">
+        <v>-0.27357181906700134</v>
       </c>
       <c r="S39" t="b">
         <v>1</v>
@@ -3674,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="Y39">
-        <v>88.277915954589844</v>
+        <v>88.4251708984375</v>
       </c>
       <c r="Z39" t="s">
         <v>11</v>
@@ -3694,10 +3724,10 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -3711,32 +3741,32 @@
       <c r="F40" t="s">
         <v>17</v>
       </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" t="s">
-        <v>11</v>
+      <c r="G40">
+        <v>1.2087968587875366</v>
+      </c>
+      <c r="H40">
+        <v>0.76517170667648315</v>
+      </c>
+      <c r="I40">
+        <v>1.909623384475708</v>
       </c>
       <c r="J40">
-        <v>34.058254241943359</v>
+        <v>33.846851348876953</v>
       </c>
       <c r="K40">
-        <v>34.453868865966797</v>
+        <v>33.443065643310547</v>
       </c>
       <c r="L40">
-        <v>0.55948358774185181</v>
+        <v>0.65821969509124756</v>
       </c>
       <c r="M40" t="s">
         <v>11</v>
       </c>
       <c r="N40">
-        <v>18.787979125976562</v>
+        <v>18.056690216064453</v>
       </c>
       <c r="O40">
-        <v>0.58223974704742432</v>
+        <v>0.65971636772155762</v>
       </c>
       <c r="P40" t="s">
         <v>11</v>
@@ -3744,8 +3774,8 @@
       <c r="Q40" t="s">
         <v>11</v>
       </c>
-      <c r="R40" t="s">
-        <v>11</v>
+      <c r="R40">
+        <v>-0.27357181906700134</v>
       </c>
       <c r="S40" t="b">
         <v>1</v>
@@ -3760,13 +3790,13 @@
         <v>3</v>
       </c>
       <c r="W40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X40">
         <v>1</v>
       </c>
       <c r="Y40">
-        <v>87.983810424804688</v>
+        <v>88.426948547363281</v>
       </c>
       <c r="Z40" t="s">
         <v>11</v>
@@ -3786,13 +3816,13 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -3803,32 +3833,32 @@
       <c r="F41" t="s">
         <v>17</v>
       </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" t="s">
-        <v>11</v>
+      <c r="G41">
+        <v>0.87927502393722534</v>
+      </c>
+      <c r="H41">
+        <v>0.56577318906784058</v>
+      </c>
+      <c r="I41">
+        <v>1.3664919137954712</v>
       </c>
       <c r="J41">
-        <v>16.644441604614258</v>
+        <v>34.849483489990234</v>
       </c>
       <c r="K41">
-        <v>16.64460563659668</v>
+        <v>34.181766510009766</v>
       </c>
       <c r="L41">
-        <v>0.27431586384773254</v>
+        <v>0.61532920598983765</v>
       </c>
       <c r="M41" t="s">
         <v>11</v>
       </c>
-      <c r="N41" t="s">
-        <v>11</v>
-      </c>
-      <c r="O41" t="s">
-        <v>11</v>
+      <c r="N41">
+        <v>18.515876770019531</v>
+      </c>
+      <c r="O41">
+        <v>0.63609057664871216</v>
       </c>
       <c r="P41" t="s">
         <v>11</v>
@@ -3836,14 +3866,14 @@
       <c r="Q41" t="s">
         <v>11</v>
       </c>
-      <c r="R41" t="s">
-        <v>11</v>
+      <c r="R41">
+        <v>0.18561363220214844</v>
       </c>
       <c r="S41" t="b">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U41" t="b">
         <v>1</v>
@@ -3852,13 +3882,13 @@
         <v>3</v>
       </c>
       <c r="W41">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X41">
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>83.958892822265625</v>
+        <v>88.277915954589844</v>
       </c>
       <c r="Z41" t="s">
         <v>11</v>
@@ -3870,7 +3900,7 @@
         <v>11</v>
       </c>
       <c r="AC41" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD41" t="s">
         <v>18</v>
@@ -3878,13 +3908,13 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -3895,32 +3925,32 @@
       <c r="F42" t="s">
         <v>17</v>
       </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" t="s">
-        <v>11</v>
+      <c r="G42">
+        <v>0.87927502393722534</v>
+      </c>
+      <c r="H42">
+        <v>0.56577318906784058</v>
+      </c>
+      <c r="I42">
+        <v>1.3664919137954712</v>
       </c>
       <c r="J42">
-        <v>16.919002532958984</v>
+        <v>33.637561798095703</v>
       </c>
       <c r="K42">
-        <v>16.64460563659668</v>
+        <v>34.181766510009766</v>
       </c>
       <c r="L42">
-        <v>0.27431586384773254</v>
+        <v>0.61532920598983765</v>
       </c>
       <c r="M42" t="s">
         <v>11</v>
       </c>
-      <c r="N42" t="s">
-        <v>11</v>
-      </c>
-      <c r="O42" t="s">
-        <v>11</v>
+      <c r="N42">
+        <v>18.515876770019531</v>
+      </c>
+      <c r="O42">
+        <v>0.63609057664871216</v>
       </c>
       <c r="P42" t="s">
         <v>11</v>
@@ -3928,14 +3958,14 @@
       <c r="Q42" t="s">
         <v>11</v>
       </c>
-      <c r="R42" t="s">
-        <v>11</v>
+      <c r="R42">
+        <v>0.18561363220214844</v>
       </c>
       <c r="S42" t="b">
         <v>1</v>
       </c>
       <c r="T42">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U42" t="b">
         <v>1</v>
@@ -3944,16 +3974,16 @@
         <v>3</v>
       </c>
       <c r="W42">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="X42">
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>84.10797119140625</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>11</v>
+        <v>88.132827758789062</v>
+      </c>
+      <c r="Z42">
+        <v>81.873947143554688</v>
       </c>
       <c r="AA42" t="s">
         <v>11</v>
@@ -3962,21 +3992,21 @@
         <v>11</v>
       </c>
       <c r="AC42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -3987,32 +4017,32 @@
       <c r="F43" t="s">
         <v>17</v>
       </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" t="s">
-        <v>11</v>
+      <c r="G43">
+        <v>0.87927502393722534</v>
+      </c>
+      <c r="H43">
+        <v>0.56577318906784058</v>
+      </c>
+      <c r="I43">
+        <v>1.3664919137954712</v>
       </c>
       <c r="J43">
-        <v>16.370370864868164</v>
+        <v>34.058254241943359</v>
       </c>
       <c r="K43">
-        <v>16.64460563659668</v>
+        <v>34.181766510009766</v>
       </c>
       <c r="L43">
-        <v>0.27431586384773254</v>
+        <v>0.61532920598983765</v>
       </c>
       <c r="M43" t="s">
         <v>11</v>
       </c>
-      <c r="N43" t="s">
-        <v>11</v>
-      </c>
-      <c r="O43" t="s">
-        <v>11</v>
+      <c r="N43">
+        <v>18.515876770019531</v>
+      </c>
+      <c r="O43">
+        <v>0.63609057664871216</v>
       </c>
       <c r="P43" t="s">
         <v>11</v>
@@ -4020,14 +4050,14 @@
       <c r="Q43" t="s">
         <v>11</v>
       </c>
-      <c r="R43" t="s">
-        <v>11</v>
+      <c r="R43">
+        <v>0.18561363220214844</v>
       </c>
       <c r="S43" t="b">
         <v>1</v>
       </c>
       <c r="T43">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U43" t="b">
         <v>1</v>
@@ -4036,13 +4066,13 @@
         <v>3</v>
       </c>
       <c r="W43">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="X43">
         <v>1</v>
       </c>
       <c r="Y43">
-        <v>83.948394775390625</v>
+        <v>87.983810424804688</v>
       </c>
       <c r="Z43" t="s">
         <v>11</v>
@@ -4054,7 +4084,7 @@
         <v>11</v>
       </c>
       <c r="AC43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD43" t="s">
         <v>18</v>
@@ -4062,10 +4092,10 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
@@ -4089,13 +4119,13 @@
         <v>11</v>
       </c>
       <c r="J44">
-        <v>15.427717208862305</v>
+        <v>16.644441604614258</v>
       </c>
       <c r="K44">
-        <v>15.326601028442383</v>
+        <v>16.64460563659668</v>
       </c>
       <c r="L44">
-        <v>0.14299987256526947</v>
+        <v>0.27431586384773254</v>
       </c>
       <c r="M44" t="s">
         <v>11</v>
@@ -4128,13 +4158,13 @@
         <v>3</v>
       </c>
       <c r="W44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
       <c r="Y44">
-        <v>84.257492065429688</v>
+        <v>83.958892822265625</v>
       </c>
       <c r="Z44" t="s">
         <v>11</v>
@@ -4154,10 +4184,10 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
@@ -4181,13 +4211,13 @@
         <v>11</v>
       </c>
       <c r="J45">
-        <v>15.225484848022461</v>
+        <v>16.919002532958984</v>
       </c>
       <c r="K45">
-        <v>15.326601028442383</v>
+        <v>16.64460563659668</v>
       </c>
       <c r="L45">
-        <v>0.14299987256526947</v>
+        <v>0.27431586384773254</v>
       </c>
       <c r="M45" t="s">
         <v>11</v>
@@ -4220,16 +4250,16 @@
         <v>3</v>
       </c>
       <c r="W45">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X45">
         <v>1</v>
       </c>
       <c r="Y45">
-        <v>84.10845947265625</v>
-      </c>
-      <c r="Z45">
-        <v>64.137802124023438</v>
+        <v>84.10797119140625</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>11</v>
       </c>
       <c r="AA45" t="s">
         <v>11</v>
@@ -4241,15 +4271,15 @@
         <v>18</v>
       </c>
       <c r="AD45" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>60</v>
@@ -4273,13 +4303,13 @@
         <v>11</v>
       </c>
       <c r="J46">
-        <v>15.35496997833252</v>
+        <v>16.370370864868164</v>
       </c>
       <c r="K46">
-        <v>15.386375427246094</v>
+        <v>16.64460563659668</v>
       </c>
       <c r="L46">
-        <v>4.4413335621356964E-2</v>
+        <v>0.27431586384773254</v>
       </c>
       <c r="M46" t="s">
         <v>11</v>
@@ -4312,13 +4342,13 @@
         <v>3</v>
       </c>
       <c r="W46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X46">
         <v>1</v>
       </c>
       <c r="Y46">
-        <v>84.10296630859375</v>
+        <v>83.948394775390625</v>
       </c>
       <c r="Z46" t="s">
         <v>11</v>
@@ -4338,10 +4368,10 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -4365,13 +4395,13 @@
         <v>11</v>
       </c>
       <c r="J47">
-        <v>15.417779922485352</v>
+        <v>15.427717208862305</v>
       </c>
       <c r="K47">
-        <v>15.386375427246094</v>
+        <v>15.326601028442383</v>
       </c>
       <c r="L47">
-        <v>4.4413335621356964E-2</v>
+        <v>0.14299987256526947</v>
       </c>
       <c r="M47" t="s">
         <v>11</v>
@@ -4404,13 +4434,13 @@
         <v>3</v>
       </c>
       <c r="W47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X47">
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>84.104988098144531</v>
+        <v>84.257492065429688</v>
       </c>
       <c r="Z47" t="s">
         <v>11</v>
@@ -4430,10 +4460,10 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
@@ -4457,13 +4487,13 @@
         <v>11</v>
       </c>
       <c r="J48">
-        <v>15.486520767211914</v>
+        <v>15.225484848022461</v>
       </c>
       <c r="K48">
-        <v>15.665890693664551</v>
+        <v>15.326601028442383</v>
       </c>
       <c r="L48">
-        <v>0.16118699312210083</v>
+        <v>0.14299987256526947</v>
       </c>
       <c r="M48" t="s">
         <v>11</v>
@@ -4502,10 +4532,10 @@
         <v>1</v>
       </c>
       <c r="Y48">
-        <v>84.104988098144531</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>11</v>
+        <v>84.10845947265625</v>
+      </c>
+      <c r="Z48">
+        <v>64.137802124023438</v>
       </c>
       <c r="AA48" t="s">
         <v>11</v>
@@ -4517,15 +4547,15 @@
         <v>18</v>
       </c>
       <c r="AD48" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
@@ -4549,13 +4579,13 @@
         <v>11</v>
       </c>
       <c r="J49">
-        <v>15.798600196838379</v>
+        <v>15.35496997833252</v>
       </c>
       <c r="K49">
-        <v>15.665890693664551</v>
+        <v>15.386375427246094</v>
       </c>
       <c r="L49">
-        <v>0.16118699312210083</v>
+        <v>4.4413335621356964E-2</v>
       </c>
       <c r="M49" t="s">
         <v>11</v>
@@ -4594,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="Y49">
-        <v>83.81121826171875</v>
+        <v>84.10296630859375</v>
       </c>
       <c r="Z49" t="s">
         <v>11</v>
@@ -4614,10 +4644,10 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
@@ -4641,13 +4671,13 @@
         <v>11</v>
       </c>
       <c r="J50">
-        <v>15.712550163269043</v>
+        <v>15.417779922485352</v>
       </c>
       <c r="K50">
-        <v>15.665890693664551</v>
+        <v>15.386375427246094</v>
       </c>
       <c r="L50">
-        <v>0.16118699312210083</v>
+        <v>4.4413335621356964E-2</v>
       </c>
       <c r="M50" t="s">
         <v>11</v>
@@ -4680,13 +4710,13 @@
         <v>3</v>
       </c>
       <c r="W50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
       <c r="Y50">
-        <v>83.662200927734375</v>
+        <v>84.104988098144531</v>
       </c>
       <c r="Z50" t="s">
         <v>11</v>
@@ -4706,13 +4736,13 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -4733,22 +4763,22 @@
         <v>11</v>
       </c>
       <c r="J51">
-        <v>33.543315887451172</v>
+        <v>15.486520767211914</v>
       </c>
       <c r="K51">
-        <v>34.221206665039062</v>
+        <v>15.665890693664551</v>
       </c>
       <c r="L51">
-        <v>0.95867961645126343</v>
+        <v>0.16118699312210083</v>
       </c>
       <c r="M51" t="s">
         <v>11</v>
       </c>
-      <c r="N51">
-        <v>18.046892166137695</v>
-      </c>
-      <c r="O51">
-        <v>0.96168005466461182</v>
+      <c r="N51" t="s">
+        <v>11</v>
+      </c>
+      <c r="O51" t="s">
+        <v>11</v>
       </c>
       <c r="P51" t="s">
         <v>11</v>
@@ -4763,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="T51">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U51" t="b">
         <v>1</v>
@@ -4772,13 +4802,13 @@
         <v>3</v>
       </c>
       <c r="W51">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="X51">
         <v>1</v>
       </c>
       <c r="Y51">
-        <v>88.431045532226562</v>
+        <v>84.104988098144531</v>
       </c>
       <c r="Z51" t="s">
         <v>11</v>
@@ -4790,7 +4820,7 @@
         <v>11</v>
       </c>
       <c r="AC51" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AD51" t="s">
         <v>18</v>
@@ -4798,13 +4828,13 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -4825,22 +4855,22 @@
         <v>11</v>
       </c>
       <c r="J52">
-        <v>34.899093627929688</v>
+        <v>15.798600196838379</v>
       </c>
       <c r="K52">
-        <v>34.221206665039062</v>
+        <v>15.665890693664551</v>
       </c>
       <c r="L52">
-        <v>0.95867961645126343</v>
+        <v>0.16118699312210083</v>
       </c>
       <c r="M52" t="s">
         <v>11</v>
       </c>
-      <c r="N52">
-        <v>18.046892166137695</v>
-      </c>
-      <c r="O52">
-        <v>0.96168005466461182</v>
+      <c r="N52" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52" t="s">
+        <v>11</v>
       </c>
       <c r="P52" t="s">
         <v>11</v>
@@ -4855,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="T52">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U52" t="b">
         <v>1</v>
@@ -4864,13 +4894,13 @@
         <v>3</v>
       </c>
       <c r="W52">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>88.271476745605469</v>
+        <v>83.81121826171875</v>
       </c>
       <c r="Z52" t="s">
         <v>11</v>
@@ -4882,7 +4912,7 @@
         <v>11</v>
       </c>
       <c r="AC52" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AD52" t="s">
         <v>18</v>
@@ -4890,10 +4920,10 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -4917,13 +4947,13 @@
         <v>11</v>
       </c>
       <c r="J53">
-        <v>16.118537902832031</v>
+        <v>15.712550163269043</v>
       </c>
       <c r="K53">
-        <v>16.174312591552734</v>
+        <v>15.665890693664551</v>
       </c>
       <c r="L53">
-        <v>7.5906984508037567E-2</v>
+        <v>0.16118699312210083</v>
       </c>
       <c r="M53" t="s">
         <v>11</v>
@@ -4956,13 +4986,13 @@
         <v>3</v>
       </c>
       <c r="W53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X53">
         <v>1</v>
       </c>
       <c r="Y53">
-        <v>84.10797119140625</v>
+        <v>83.662200927734375</v>
       </c>
       <c r="Z53" t="s">
         <v>11</v>
@@ -4982,13 +5012,13 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
         <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -4999,32 +5029,32 @@
       <c r="F54" t="s">
         <v>17</v>
       </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
-        <v>11</v>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0.55850732326507568</v>
+      </c>
+      <c r="I54">
+        <v>1.7904869318008423</v>
       </c>
       <c r="J54">
-        <v>16.143644332885742</v>
+        <v>33.543315887451172</v>
       </c>
       <c r="K54">
-        <v>16.174312591552734</v>
+        <v>34.50457763671875</v>
       </c>
       <c r="L54">
-        <v>7.5906984508037567E-2</v>
+        <v>0.83691668510437012</v>
       </c>
       <c r="M54" t="s">
         <v>11</v>
       </c>
-      <c r="N54" t="s">
-        <v>11</v>
-      </c>
-      <c r="O54" t="s">
-        <v>11</v>
+      <c r="N54">
+        <v>18.330263137817383</v>
+      </c>
+      <c r="O54">
+        <v>0.84035199880599976</v>
       </c>
       <c r="P54" t="s">
         <v>11</v>
@@ -5032,14 +5062,14 @@
       <c r="Q54" t="s">
         <v>11</v>
       </c>
-      <c r="R54" t="s">
-        <v>11</v>
+      <c r="R54">
+        <v>0</v>
       </c>
       <c r="S54" t="b">
         <v>1</v>
       </c>
       <c r="T54">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U54" t="b">
         <v>1</v>
@@ -5048,13 +5078,13 @@
         <v>3</v>
       </c>
       <c r="W54">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="X54">
         <v>1</v>
       </c>
       <c r="Y54">
-        <v>83.958892822265625</v>
+        <v>88.431045532226562</v>
       </c>
       <c r="Z54" t="s">
         <v>11</v>
@@ -5066,7 +5096,7 @@
         <v>11</v>
       </c>
       <c r="AC54" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD54" t="s">
         <v>18</v>
@@ -5074,13 +5104,13 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
         <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -5091,32 +5121,32 @@
       <c r="F55" t="s">
         <v>17</v>
       </c>
-      <c r="G55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" t="s">
-        <v>11</v>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0.55850732326507568</v>
+      </c>
+      <c r="I55">
+        <v>1.7904869318008423</v>
       </c>
       <c r="J55">
-        <v>16.26075553894043</v>
+        <v>35.071315765380859</v>
       </c>
       <c r="K55">
-        <v>16.174312591552734</v>
+        <v>34.50457763671875</v>
       </c>
       <c r="L55">
-        <v>7.5906984508037567E-2</v>
+        <v>0.83691668510437012</v>
       </c>
       <c r="M55" t="s">
         <v>11</v>
       </c>
-      <c r="N55" t="s">
-        <v>11</v>
-      </c>
-      <c r="O55" t="s">
-        <v>11</v>
+      <c r="N55">
+        <v>18.330263137817383</v>
+      </c>
+      <c r="O55">
+        <v>0.84035199880599976</v>
       </c>
       <c r="P55" t="s">
         <v>11</v>
@@ -5124,14 +5154,14 @@
       <c r="Q55" t="s">
         <v>11</v>
       </c>
-      <c r="R55" t="s">
-        <v>11</v>
+      <c r="R55">
+        <v>0</v>
       </c>
       <c r="S55" t="b">
         <v>1</v>
       </c>
       <c r="T55">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U55" t="b">
         <v>1</v>
@@ -5140,16 +5170,16 @@
         <v>3</v>
       </c>
       <c r="W55">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="X55">
         <v>1</v>
       </c>
       <c r="Y55">
-        <v>84.09747314453125</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>11</v>
+        <v>88.281974792480469</v>
+      </c>
+      <c r="Z55">
+        <v>70.840591430664062</v>
       </c>
       <c r="AA55" t="s">
         <v>11</v>
@@ -5158,18 +5188,18 @@
         <v>11</v>
       </c>
       <c r="AC55" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD55" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -5183,32 +5213,32 @@
       <c r="F56" t="s">
         <v>17</v>
       </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" t="s">
-        <v>11</v>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0.55850732326507568</v>
+      </c>
+      <c r="I56">
+        <v>1.7904869318008423</v>
       </c>
       <c r="J56">
-        <v>30.347452163696289</v>
+        <v>34.899093627929688</v>
       </c>
       <c r="K56">
-        <v>29.973953247070312</v>
+        <v>34.50457763671875</v>
       </c>
       <c r="L56">
-        <v>0.52820724248886108</v>
+        <v>0.83691668510437012</v>
       </c>
       <c r="M56" t="s">
         <v>11</v>
       </c>
       <c r="N56">
-        <v>14.455059051513672</v>
+        <v>18.330263137817383</v>
       </c>
       <c r="O56">
-        <v>0.64186835289001465</v>
+        <v>0.84035199880599976</v>
       </c>
       <c r="P56" t="s">
         <v>11</v>
@@ -5216,8 +5246,8 @@
       <c r="Q56" t="s">
         <v>11</v>
       </c>
-      <c r="R56" t="s">
-        <v>11</v>
+      <c r="R56">
+        <v>0</v>
       </c>
       <c r="S56" t="b">
         <v>1</v>
@@ -5232,13 +5262,13 @@
         <v>3</v>
       </c>
       <c r="W56">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X56">
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>88.430465698242188</v>
+        <v>88.271476745605469</v>
       </c>
       <c r="Z56" t="s">
         <v>11</v>
@@ -5258,7 +5288,7 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
         <v>103</v>
@@ -5275,32 +5305,32 @@
       <c r="F57" t="s">
         <v>17</v>
       </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" t="s">
-        <v>11</v>
+      <c r="G57">
+        <v>0.65846818685531616</v>
+      </c>
+      <c r="H57">
+        <v>0.28137373924255371</v>
+      </c>
+      <c r="I57">
+        <v>1.5409409999847412</v>
       </c>
       <c r="J57">
-        <v>29.600454330444336</v>
+        <v>31.896543502807617</v>
       </c>
       <c r="K57">
-        <v>29.973953247070312</v>
+        <v>30.614816665649414</v>
       </c>
       <c r="L57">
-        <v>0.52820724248886108</v>
+        <v>1.1711615324020386</v>
       </c>
       <c r="M57" t="s">
         <v>11</v>
       </c>
       <c r="N57">
-        <v>14.455059051513672</v>
+        <v>15.095922470092773</v>
       </c>
       <c r="O57">
-        <v>0.64186835289001465</v>
+        <v>1.2266260385513306</v>
       </c>
       <c r="P57" t="s">
         <v>11</v>
@@ -5308,8 +5338,8 @@
       <c r="Q57" t="s">
         <v>11</v>
       </c>
-      <c r="R57" t="s">
-        <v>11</v>
+      <c r="R57">
+        <v>0.60281437635421753</v>
       </c>
       <c r="S57" t="b">
         <v>1</v>
@@ -5324,16 +5354,16 @@
         <v>3</v>
       </c>
       <c r="W57">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X57">
         <v>1</v>
       </c>
       <c r="Y57">
-        <v>88.430465698242188</v>
-      </c>
-      <c r="Z57">
-        <v>65.032012939453125</v>
+        <v>88.420547485351562</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>11</v>
       </c>
       <c r="AA57" t="s">
         <v>11</v>
@@ -5345,15 +5375,15 @@
         <v>24</v>
       </c>
       <c r="AD57" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -5367,32 +5397,32 @@
       <c r="F58" t="s">
         <v>17</v>
       </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" t="s">
-        <v>11</v>
+      <c r="G58">
+        <v>0.65846818685531616</v>
+      </c>
+      <c r="H58">
+        <v>0.28137373924255371</v>
+      </c>
+      <c r="I58">
+        <v>1.5409409999847412</v>
       </c>
       <c r="J58">
-        <v>29.559486389160156</v>
+        <v>30.347452163696289</v>
       </c>
       <c r="K58">
-        <v>29.523340225219727</v>
+        <v>30.614816665649414</v>
       </c>
       <c r="L58">
-        <v>0.50176417827606201</v>
+        <v>1.1711615324020386</v>
       </c>
       <c r="M58" t="s">
         <v>11</v>
       </c>
       <c r="N58">
-        <v>14.162744522094727</v>
+        <v>15.095922470092773</v>
       </c>
       <c r="O58">
-        <v>0.52119255065917969</v>
+        <v>1.2266260385513306</v>
       </c>
       <c r="P58" t="s">
         <v>11</v>
@@ -5400,8 +5430,8 @@
       <c r="Q58" t="s">
         <v>11</v>
       </c>
-      <c r="R58" t="s">
-        <v>11</v>
+      <c r="R58">
+        <v>0.60281437635421753</v>
       </c>
       <c r="S58" t="b">
         <v>1</v>
@@ -5416,13 +5446,13 @@
         <v>3</v>
       </c>
       <c r="W58">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>88.4251708984375</v>
+        <v>88.430465698242188</v>
       </c>
       <c r="Z58" t="s">
         <v>11</v>
@@ -5442,10 +5472,10 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -5459,32 +5489,32 @@
       <c r="F59" t="s">
         <v>17</v>
       </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>11</v>
+      <c r="G59">
+        <v>0.65846818685531616</v>
+      </c>
+      <c r="H59">
+        <v>0.28137373924255371</v>
+      </c>
+      <c r="I59">
+        <v>1.5409409999847412</v>
       </c>
       <c r="J59">
-        <v>30.006053924560547</v>
+        <v>29.600454330444336</v>
       </c>
       <c r="K59">
-        <v>29.523340225219727</v>
+        <v>30.614816665649414</v>
       </c>
       <c r="L59">
-        <v>0.50176417827606201</v>
+        <v>1.1711615324020386</v>
       </c>
       <c r="M59" t="s">
         <v>11</v>
       </c>
       <c r="N59">
-        <v>14.162744522094727</v>
+        <v>15.095922470092773</v>
       </c>
       <c r="O59">
-        <v>0.52119255065917969</v>
+        <v>1.2266260385513306</v>
       </c>
       <c r="P59" t="s">
         <v>11</v>
@@ -5492,8 +5522,8 @@
       <c r="Q59" t="s">
         <v>11</v>
       </c>
-      <c r="R59" t="s">
-        <v>11</v>
+      <c r="R59">
+        <v>0.60281437635421753</v>
       </c>
       <c r="S59" t="b">
         <v>1</v>
@@ -5508,16 +5538,16 @@
         <v>3</v>
       </c>
       <c r="W59">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>88.4251708984375</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>11</v>
+        <v>88.430465698242188</v>
+      </c>
+      <c r="Z59">
+        <v>65.032012939453125</v>
       </c>
       <c r="AA59" t="s">
         <v>11</v>
@@ -5529,12 +5559,12 @@
         <v>24</v>
       </c>
       <c r="AD59" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
         <v>104</v>
@@ -5551,17 +5581,17 @@
       <c r="F60" t="s">
         <v>17</v>
       </c>
-      <c r="G60" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" t="s">
-        <v>11</v>
+      <c r="G60">
+        <v>1.2573306560516357</v>
+      </c>
+      <c r="H60">
+        <v>0.87610244750976562</v>
+      </c>
+      <c r="I60">
+        <v>1.804446816444397</v>
       </c>
       <c r="J60">
-        <v>29.004480361938477</v>
+        <v>29.559486389160156</v>
       </c>
       <c r="K60">
         <v>29.523340225219727</v>
@@ -5584,8 +5614,8 @@
       <c r="Q60" t="s">
         <v>11</v>
       </c>
-      <c r="R60" t="s">
-        <v>11</v>
+      <c r="R60">
+        <v>-0.33036407828330994</v>
       </c>
       <c r="S60" t="b">
         <v>1</v>
@@ -5600,13 +5630,13 @@
         <v>3</v>
       </c>
       <c r="W60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X60">
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>88.426948547363281</v>
+        <v>88.4251708984375</v>
       </c>
       <c r="Z60" t="s">
         <v>11</v>
@@ -5626,10 +5656,10 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -5643,32 +5673,32 @@
       <c r="F61" t="s">
         <v>17</v>
       </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
-        <v>11</v>
+      <c r="G61">
+        <v>1.2573306560516357</v>
+      </c>
+      <c r="H61">
+        <v>0.87610244750976562</v>
+      </c>
+      <c r="I61">
+        <v>1.804446816444397</v>
       </c>
       <c r="J61">
-        <v>29.341514587402344</v>
+        <v>30.006053924560547</v>
       </c>
       <c r="K61">
-        <v>29.497434616088867</v>
+        <v>29.523340225219727</v>
       </c>
       <c r="L61">
-        <v>0.22050422430038452</v>
+        <v>0.50176417827606201</v>
       </c>
       <c r="M61" t="s">
         <v>11</v>
       </c>
       <c r="N61">
-        <v>13.81287956237793</v>
+        <v>14.162744522094727</v>
       </c>
       <c r="O61">
-        <v>0.35035976767539978</v>
+        <v>0.52119255065917969</v>
       </c>
       <c r="P61" t="s">
         <v>11</v>
@@ -5676,8 +5706,8 @@
       <c r="Q61" t="s">
         <v>11</v>
       </c>
-      <c r="R61" t="s">
-        <v>11</v>
+      <c r="R61">
+        <v>-0.33036407828330994</v>
       </c>
       <c r="S61" t="b">
         <v>1</v>
@@ -5692,13 +5722,13 @@
         <v>3</v>
       </c>
       <c r="W61">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X61">
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>88.128875732421875</v>
+        <v>88.4251708984375</v>
       </c>
       <c r="Z61" t="s">
         <v>11</v>
@@ -5710,7 +5740,7 @@
         <v>11</v>
       </c>
       <c r="AC61" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD61" t="s">
         <v>18</v>
@@ -5718,10 +5748,10 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -5735,32 +5765,32 @@
       <c r="F62" t="s">
         <v>17</v>
       </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
+      <c r="G62">
+        <v>1.2573306560516357</v>
+      </c>
+      <c r="H62">
+        <v>0.87610244750976562</v>
+      </c>
+      <c r="I62">
+        <v>1.804446816444397</v>
       </c>
       <c r="J62">
-        <v>29.653354644775391</v>
+        <v>29.004480361938477</v>
       </c>
       <c r="K62">
-        <v>29.497434616088867</v>
+        <v>29.523340225219727</v>
       </c>
       <c r="L62">
-        <v>0.22050422430038452</v>
+        <v>0.50176417827606201</v>
       </c>
       <c r="M62" t="s">
         <v>11</v>
       </c>
       <c r="N62">
-        <v>13.81287956237793</v>
+        <v>14.162744522094727</v>
       </c>
       <c r="O62">
-        <v>0.35035976767539978</v>
+        <v>0.52119255065917969</v>
       </c>
       <c r="P62" t="s">
         <v>11</v>
@@ -5768,8 +5798,8 @@
       <c r="Q62" t="s">
         <v>11</v>
       </c>
-      <c r="R62" t="s">
-        <v>11</v>
+      <c r="R62">
+        <v>-0.33036407828330994</v>
       </c>
       <c r="S62" t="b">
         <v>1</v>
@@ -5784,13 +5814,13 @@
         <v>3</v>
       </c>
       <c r="W62">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X62">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>88.132827758789062</v>
+        <v>88.426948547363281</v>
       </c>
       <c r="Z62" t="s">
         <v>11</v>
@@ -5802,7 +5832,7 @@
         <v>11</v>
       </c>
       <c r="AC62" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD62" t="s">
         <v>18</v>
@@ -5810,13 +5840,13 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
@@ -5827,32 +5857,32 @@
       <c r="F63" t="s">
         <v>17</v>
       </c>
-      <c r="G63" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>11</v>
+      <c r="G63">
+        <v>1.8893940448760986</v>
+      </c>
+      <c r="H63">
+        <v>1.3197791576385498</v>
+      </c>
+      <c r="I63">
+        <v>2.7048537731170654</v>
       </c>
       <c r="J63">
-        <v>15.776762008666992</v>
+        <v>29.341514587402344</v>
       </c>
       <c r="K63">
-        <v>15.518894195556641</v>
+        <v>29.259740829467773</v>
       </c>
       <c r="L63">
-        <v>0.36468082666397095</v>
+        <v>0.44023615121841431</v>
       </c>
       <c r="M63" t="s">
         <v>11</v>
       </c>
-      <c r="N63" t="s">
-        <v>11</v>
-      </c>
-      <c r="O63" t="s">
-        <v>11</v>
+      <c r="N63">
+        <v>13.57518482208252</v>
+      </c>
+      <c r="O63">
+        <v>0.51762700080871582</v>
       </c>
       <c r="P63" t="s">
         <v>11</v>
@@ -5860,14 +5890,14 @@
       <c r="Q63" t="s">
         <v>11</v>
       </c>
-      <c r="R63" t="s">
-        <v>11</v>
+      <c r="R63">
+        <v>-0.91792362928390503</v>
       </c>
       <c r="S63" t="b">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U63" t="b">
         <v>1</v>
@@ -5876,13 +5906,13 @@
         <v>3</v>
       </c>
       <c r="W63">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="X63">
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>83.948394775390625</v>
+        <v>88.128875732421875</v>
       </c>
       <c r="Z63" t="s">
         <v>11</v>
@@ -5902,13 +5932,13 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -5919,32 +5949,32 @@
       <c r="F64" t="s">
         <v>17</v>
       </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" t="s">
-        <v>11</v>
+      <c r="G64">
+        <v>1.8893940448760986</v>
+      </c>
+      <c r="H64">
+        <v>1.3197791576385498</v>
+      </c>
+      <c r="I64">
+        <v>2.7048537731170654</v>
       </c>
       <c r="J64">
-        <v>15.261025428771973</v>
+        <v>29.653354644775391</v>
       </c>
       <c r="K64">
-        <v>15.518894195556641</v>
+        <v>29.259740829467773</v>
       </c>
       <c r="L64">
-        <v>0.36468082666397095</v>
+        <v>0.44023615121841431</v>
       </c>
       <c r="M64" t="s">
         <v>11</v>
       </c>
-      <c r="N64" t="s">
-        <v>11</v>
-      </c>
-      <c r="O64" t="s">
-        <v>11</v>
+      <c r="N64">
+        <v>13.57518482208252</v>
+      </c>
+      <c r="O64">
+        <v>0.51762700080871582</v>
       </c>
       <c r="P64" t="s">
         <v>11</v>
@@ -5952,14 +5982,14 @@
       <c r="Q64" t="s">
         <v>11</v>
       </c>
-      <c r="R64" t="s">
-        <v>11</v>
+      <c r="R64">
+        <v>-0.91792362928390503</v>
       </c>
       <c r="S64" t="b">
         <v>1</v>
       </c>
       <c r="T64">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U64" t="b">
         <v>1</v>
@@ -5968,16 +5998,16 @@
         <v>3</v>
       </c>
       <c r="W64">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="X64">
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>84.257492065429688</v>
-      </c>
-      <c r="Z64">
-        <v>64.137802124023438</v>
+        <v>88.132827758789062</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>11</v>
       </c>
       <c r="AA64" t="s">
         <v>11</v>
@@ -5989,18 +6019,18 @@
         <v>18</v>
       </c>
       <c r="AD64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -6011,32 +6041,32 @@
       <c r="F65" t="s">
         <v>17</v>
       </c>
-      <c r="G65" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" t="s">
-        <v>11</v>
+      <c r="G65">
+        <v>1.8893940448760986</v>
+      </c>
+      <c r="H65">
+        <v>1.3197791576385498</v>
+      </c>
+      <c r="I65">
+        <v>2.7048537731170654</v>
       </c>
       <c r="J65">
-        <v>15.50410270690918</v>
+        <v>28.78434944152832</v>
       </c>
       <c r="K65">
-        <v>15.360595703125</v>
+        <v>29.259740829467773</v>
       </c>
       <c r="L65">
-        <v>0.14097651839256287</v>
+        <v>0.44023615121841431</v>
       </c>
       <c r="M65" t="s">
         <v>11</v>
       </c>
-      <c r="N65" t="s">
-        <v>11</v>
-      </c>
-      <c r="O65" t="s">
-        <v>11</v>
+      <c r="N65">
+        <v>13.57518482208252</v>
+      </c>
+      <c r="O65">
+        <v>0.51762700080871582</v>
       </c>
       <c r="P65" t="s">
         <v>11</v>
@@ -6044,14 +6074,14 @@
       <c r="Q65" t="s">
         <v>11</v>
       </c>
-      <c r="R65" t="s">
-        <v>11</v>
+      <c r="R65">
+        <v>-0.91792362928390503</v>
       </c>
       <c r="S65" t="b">
         <v>1</v>
       </c>
       <c r="T65">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U65" t="b">
         <v>1</v>
@@ -6060,13 +6090,13 @@
         <v>3</v>
       </c>
       <c r="W65">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="X65">
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>84.10296630859375</v>
+        <v>87.983810424804688</v>
       </c>
       <c r="Z65" t="s">
         <v>11</v>
@@ -6086,10 +6116,10 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
         <v>60</v>
@@ -6113,13 +6143,13 @@
         <v>11</v>
       </c>
       <c r="J66">
-        <v>15.355390548706055</v>
+        <v>16.118537902832031</v>
       </c>
       <c r="K66">
-        <v>15.360595703125</v>
+        <v>16.174312591552734</v>
       </c>
       <c r="L66">
-        <v>0.14097651839256287</v>
+        <v>7.5906984508037567E-2</v>
       </c>
       <c r="M66" t="s">
         <v>11</v>
@@ -6152,13 +6182,13 @@
         <v>3</v>
       </c>
       <c r="W66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X66">
         <v>1</v>
       </c>
       <c r="Y66">
-        <v>84.10296630859375</v>
+        <v>84.10797119140625</v>
       </c>
       <c r="Z66" t="s">
         <v>11</v>
@@ -6178,10 +6208,10 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
         <v>60</v>
@@ -6205,13 +6235,13 @@
         <v>11</v>
       </c>
       <c r="J67">
-        <v>15.222293853759766</v>
+        <v>16.143644332885742</v>
       </c>
       <c r="K67">
-        <v>15.360595703125</v>
+        <v>16.174312591552734</v>
       </c>
       <c r="L67">
-        <v>0.14097651839256287</v>
+        <v>7.5906984508037567E-2</v>
       </c>
       <c r="M67" t="s">
         <v>11</v>
@@ -6244,13 +6274,13 @@
         <v>3</v>
       </c>
       <c r="W67">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X67">
         <v>1</v>
       </c>
       <c r="Y67">
-        <v>84.104988098144531</v>
+        <v>83.958892822265625</v>
       </c>
       <c r="Z67" t="s">
         <v>11</v>
@@ -6270,10 +6300,10 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
         <v>60</v>
@@ -6297,13 +6327,13 @@
         <v>11</v>
       </c>
       <c r="J68">
-        <v>15.492032051086426</v>
+        <v>16.26075553894043</v>
       </c>
       <c r="K68">
-        <v>15.684555053710938</v>
+        <v>16.174312591552734</v>
       </c>
       <c r="L68">
-        <v>0.27226796746253967</v>
+        <v>7.5906984508037567E-2</v>
       </c>
       <c r="M68" t="s">
         <v>11</v>
@@ -6336,13 +6366,13 @@
         <v>3</v>
       </c>
       <c r="W68">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X68">
         <v>1</v>
       </c>
       <c r="Y68">
-        <v>84.104988098144531</v>
+        <v>84.09747314453125</v>
       </c>
       <c r="Z68" t="s">
         <v>11</v>
@@ -6362,10 +6392,10 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
         <v>60</v>
@@ -6389,13 +6419,13 @@
         <v>11</v>
       </c>
       <c r="J69">
-        <v>15.877077102661133</v>
+        <v>15.776762008666992</v>
       </c>
       <c r="K69">
-        <v>15.684555053710938</v>
+        <v>15.518894195556641</v>
       </c>
       <c r="L69">
-        <v>0.27226796746253967</v>
+        <v>0.36468082666397095</v>
       </c>
       <c r="M69" t="s">
         <v>11</v>
@@ -6428,13 +6458,13 @@
         <v>3</v>
       </c>
       <c r="W69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X69">
         <v>1</v>
       </c>
       <c r="Y69">
-        <v>83.662200927734375</v>
+        <v>83.948394775390625</v>
       </c>
       <c r="Z69" t="s">
         <v>11</v>
@@ -6454,13 +6484,13 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
@@ -6481,22 +6511,22 @@
         <v>11</v>
       </c>
       <c r="J70">
-        <v>29.939447402954102</v>
+        <v>15.261025428771973</v>
       </c>
       <c r="K70">
-        <v>30.402877807617188</v>
+        <v>15.518894195556641</v>
       </c>
       <c r="L70">
-        <v>0.65538954734802246</v>
+        <v>0.36468082666397095</v>
       </c>
       <c r="M70" t="s">
         <v>11</v>
       </c>
-      <c r="N70">
-        <v>13.853511810302734</v>
-      </c>
-      <c r="O70">
-        <v>0.84311997890472412</v>
+      <c r="N70" t="s">
+        <v>11</v>
+      </c>
+      <c r="O70" t="s">
+        <v>11</v>
       </c>
       <c r="P70" t="s">
         <v>11</v>
@@ -6511,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="T70">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U70" t="b">
         <v>1</v>
@@ -6520,16 +6550,16 @@
         <v>3</v>
       </c>
       <c r="W70">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="X70">
         <v>1</v>
       </c>
       <c r="Y70">
-        <v>88.281974792480469</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>11</v>
+        <v>84.257492065429688</v>
+      </c>
+      <c r="Z70">
+        <v>64.137802124023438</v>
       </c>
       <c r="AA70" t="s">
         <v>11</v>
@@ -6538,21 +6568,21 @@
         <v>11</v>
       </c>
       <c r="AC70" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD70" t="s">
         <v>24</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
@@ -6573,22 +6603,22 @@
         <v>11</v>
       </c>
       <c r="J71">
-        <v>30.866308212280273</v>
+        <v>15.50410270690918</v>
       </c>
       <c r="K71">
-        <v>30.402877807617188</v>
+        <v>15.360595703125</v>
       </c>
       <c r="L71">
-        <v>0.65538954734802246</v>
+        <v>0.14097651839256287</v>
       </c>
       <c r="M71" t="s">
         <v>11</v>
       </c>
-      <c r="N71">
-        <v>13.853511810302734</v>
-      </c>
-      <c r="O71">
-        <v>0.84311997890472412</v>
+      <c r="N71" t="s">
+        <v>11</v>
+      </c>
+      <c r="O71" t="s">
+        <v>11</v>
       </c>
       <c r="P71" t="s">
         <v>11</v>
@@ -6603,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="T71">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U71" t="b">
         <v>1</v>
@@ -6612,13 +6642,13 @@
         <v>3</v>
       </c>
       <c r="W71">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="X71">
         <v>1</v>
       </c>
       <c r="Y71">
-        <v>88.420547485351562</v>
+        <v>84.10296630859375</v>
       </c>
       <c r="Z71" t="s">
         <v>11</v>
@@ -6630,7 +6660,7 @@
         <v>11</v>
       </c>
       <c r="AC71" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AD71" t="s">
         <v>18</v>
@@ -6638,13 +6668,13 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
@@ -6665,22 +6695,22 @@
         <v>11</v>
       </c>
       <c r="J72">
-        <v>29.685998916625977</v>
+        <v>15.355390548706055</v>
       </c>
       <c r="K72">
-        <v>29.781898498535156</v>
+        <v>15.360595703125</v>
       </c>
       <c r="L72">
-        <v>0.15125724673271179</v>
+        <v>0.14097651839256287</v>
       </c>
       <c r="M72" t="s">
         <v>11</v>
       </c>
-      <c r="N72">
-        <v>14.493108749389648</v>
-      </c>
-      <c r="O72">
-        <v>0.26578444242477417</v>
+      <c r="N72" t="s">
+        <v>11</v>
+      </c>
+      <c r="O72" t="s">
+        <v>11</v>
       </c>
       <c r="P72" t="s">
         <v>11</v>
@@ -6695,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="T72">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U72" t="b">
         <v>1</v>
@@ -6704,13 +6734,13 @@
         <v>3</v>
       </c>
       <c r="W72">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="X72">
         <v>1</v>
       </c>
       <c r="Y72">
-        <v>88.420547485351562</v>
+        <v>84.10296630859375</v>
       </c>
       <c r="Z72" t="s">
         <v>11</v>
@@ -6730,13 +6760,13 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -6757,22 +6787,22 @@
         <v>11</v>
       </c>
       <c r="J73">
-        <v>29.956264495849609</v>
+        <v>15.222293853759766</v>
       </c>
       <c r="K73">
-        <v>29.781898498535156</v>
+        <v>15.360595703125</v>
       </c>
       <c r="L73">
-        <v>0.15125724673271179</v>
+        <v>0.14097651839256287</v>
       </c>
       <c r="M73" t="s">
         <v>11</v>
       </c>
-      <c r="N73">
-        <v>14.493108749389648</v>
-      </c>
-      <c r="O73">
-        <v>0.26578444242477417</v>
+      <c r="N73" t="s">
+        <v>11</v>
+      </c>
+      <c r="O73" t="s">
+        <v>11</v>
       </c>
       <c r="P73" t="s">
         <v>11</v>
@@ -6787,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="T73">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U73" t="b">
         <v>1</v>
@@ -6796,13 +6826,13 @@
         <v>3</v>
       </c>
       <c r="W73">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="X73">
         <v>1</v>
       </c>
       <c r="Y73">
-        <v>88.579505920410156</v>
+        <v>84.104988098144531</v>
       </c>
       <c r="Z73" t="s">
         <v>11</v>
@@ -6822,13 +6852,13 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
@@ -6849,22 +6879,22 @@
         <v>11</v>
       </c>
       <c r="J74">
-        <v>29.70343017578125</v>
+        <v>15.492032051086426</v>
       </c>
       <c r="K74">
-        <v>29.781898498535156</v>
+        <v>15.684555053710938</v>
       </c>
       <c r="L74">
-        <v>0.15125724673271179</v>
+        <v>0.27226796746253967</v>
       </c>
       <c r="M74" t="s">
         <v>11</v>
       </c>
-      <c r="N74">
-        <v>14.493108749389648</v>
-      </c>
-      <c r="O74">
-        <v>0.26578444242477417</v>
+      <c r="N74" t="s">
+        <v>11</v>
+      </c>
+      <c r="O74" t="s">
+        <v>11</v>
       </c>
       <c r="P74" t="s">
         <v>11</v>
@@ -6879,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="T74">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U74" t="b">
         <v>1</v>
@@ -6888,13 +6918,13 @@
         <v>3</v>
       </c>
       <c r="W74">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="X74">
         <v>1</v>
       </c>
       <c r="Y74">
-        <v>88.579505920410156</v>
+        <v>84.104988098144531</v>
       </c>
       <c r="Z74" t="s">
         <v>11</v>
@@ -6914,10 +6944,10 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
         <v>60</v>
@@ -6941,13 +6971,13 @@
         <v>11</v>
       </c>
       <c r="J75">
-        <v>16.924409866333008</v>
+        <v>15.877077102661133</v>
       </c>
       <c r="K75">
-        <v>16.549365997314453</v>
+        <v>15.684555053710938</v>
       </c>
       <c r="L75">
-        <v>0.5303921103477478</v>
+        <v>0.27226796746253967</v>
       </c>
       <c r="M75" t="s">
         <v>11</v>
@@ -6980,13 +7010,13 @@
         <v>3</v>
       </c>
       <c r="W75">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X75">
         <v>1</v>
       </c>
       <c r="Y75">
-        <v>84.10797119140625</v>
+        <v>83.662200927734375</v>
       </c>
       <c r="Z75" t="s">
         <v>11</v>
@@ -6998,7 +7028,7 @@
         <v>11</v>
       </c>
       <c r="AC75" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AD75" t="s">
         <v>18</v>
@@ -7006,13 +7036,13 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
         <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -7023,32 +7053,32 @@
       <c r="F76" t="s">
         <v>17</v>
       </c>
-      <c r="G76" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
+      <c r="G76">
+        <v>1.2679612636566162</v>
+      </c>
+      <c r="H76">
+        <v>0.69266778230667114</v>
+      </c>
+      <c r="I76">
+        <v>2.3210632801055908</v>
       </c>
       <c r="J76">
-        <v>16.174322128295898</v>
+        <v>29.939447402954102</v>
       </c>
       <c r="K76">
-        <v>16.549365997314453</v>
+        <v>30.69996452331543</v>
       </c>
       <c r="L76">
-        <v>0.5303921103477478</v>
+        <v>0.69249415397644043</v>
       </c>
       <c r="M76" t="s">
         <v>11</v>
       </c>
-      <c r="N76" t="s">
-        <v>11</v>
-      </c>
-      <c r="O76" t="s">
-        <v>11</v>
+      <c r="N76">
+        <v>14.15059757232666</v>
+      </c>
+      <c r="O76">
+        <v>0.87227517366409302</v>
       </c>
       <c r="P76" t="s">
         <v>11</v>
@@ -7056,14 +7086,14 @@
       <c r="Q76" t="s">
         <v>11</v>
       </c>
-      <c r="R76" t="s">
-        <v>11</v>
+      <c r="R76">
+        <v>-0.34251070022583008</v>
       </c>
       <c r="S76" t="b">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U76" t="b">
         <v>1</v>
@@ -7072,13 +7102,13 @@
         <v>3</v>
       </c>
       <c r="W76">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="X76">
         <v>1</v>
       </c>
       <c r="Y76">
-        <v>84.09747314453125</v>
+        <v>88.281974792480469</v>
       </c>
       <c r="Z76" t="s">
         <v>11</v>
@@ -7098,13 +7128,13 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -7115,32 +7145,32 @@
       <c r="F77" t="s">
         <v>17</v>
       </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" t="s">
-        <v>11</v>
+      <c r="G77">
+        <v>1.2679612636566162</v>
+      </c>
+      <c r="H77">
+        <v>0.69266778230667114</v>
+      </c>
+      <c r="I77">
+        <v>2.3210632801055908</v>
       </c>
       <c r="J77">
-        <v>15.13425350189209</v>
+        <v>31.294136047363281</v>
       </c>
       <c r="K77">
-        <v>15.288789749145508</v>
+        <v>30.69996452331543</v>
       </c>
       <c r="L77">
-        <v>0.21854658424854279</v>
+        <v>0.69249415397644043</v>
       </c>
       <c r="M77" t="s">
         <v>11</v>
       </c>
-      <c r="N77" t="s">
-        <v>11</v>
-      </c>
-      <c r="O77" t="s">
-        <v>11</v>
+      <c r="N77">
+        <v>14.15059757232666</v>
+      </c>
+      <c r="O77">
+        <v>0.87227517366409302</v>
       </c>
       <c r="P77" t="s">
         <v>11</v>
@@ -7148,14 +7178,14 @@
       <c r="Q77" t="s">
         <v>11</v>
       </c>
-      <c r="R77" t="s">
-        <v>11</v>
+      <c r="R77">
+        <v>-0.34251070022583008</v>
       </c>
       <c r="S77" t="b">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U77" t="b">
         <v>1</v>
@@ -7164,13 +7194,13 @@
         <v>3</v>
       </c>
       <c r="W77">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="X77">
         <v>1</v>
       </c>
       <c r="Y77">
-        <v>83.948394775390625</v>
+        <v>88.281974792480469</v>
       </c>
       <c r="Z77" t="s">
         <v>11</v>
@@ -7182,7 +7212,7 @@
         <v>11</v>
       </c>
       <c r="AC77" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD77" t="s">
         <v>18</v>
@@ -7190,13 +7220,13 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -7207,32 +7237,32 @@
       <c r="F78" t="s">
         <v>17</v>
       </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" t="s">
-        <v>11</v>
+      <c r="G78">
+        <v>1.2679612636566162</v>
+      </c>
+      <c r="H78">
+        <v>0.69266778230667114</v>
+      </c>
+      <c r="I78">
+        <v>2.3210632801055908</v>
       </c>
       <c r="J78">
-        <v>15.443325042724609</v>
+        <v>30.866308212280273</v>
       </c>
       <c r="K78">
-        <v>15.288789749145508</v>
+        <v>30.69996452331543</v>
       </c>
       <c r="L78">
-        <v>0.21854658424854279</v>
+        <v>0.69249415397644043</v>
       </c>
       <c r="M78" t="s">
         <v>11</v>
       </c>
-      <c r="N78" t="s">
-        <v>11</v>
-      </c>
-      <c r="O78" t="s">
-        <v>11</v>
+      <c r="N78">
+        <v>14.15059757232666</v>
+      </c>
+      <c r="O78">
+        <v>0.87227517366409302</v>
       </c>
       <c r="P78" t="s">
         <v>11</v>
@@ -7240,14 +7270,14 @@
       <c r="Q78" t="s">
         <v>11</v>
       </c>
-      <c r="R78" t="s">
-        <v>11</v>
+      <c r="R78">
+        <v>-0.34251070022583008</v>
       </c>
       <c r="S78" t="b">
         <v>1</v>
       </c>
       <c r="T78">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U78" t="b">
         <v>1</v>
@@ -7256,28 +7286,704 @@
         <v>3</v>
       </c>
       <c r="W78">
+        <v>23</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>88.420547485351562</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0.83174639940261841</v>
+      </c>
+      <c r="I79">
+        <v>1.2022895812988281</v>
+      </c>
+      <c r="J79">
+        <v>29.685998916625977</v>
+      </c>
+      <c r="K79">
+        <v>29.781898498535156</v>
+      </c>
+      <c r="L79">
+        <v>0.15125724673271179</v>
+      </c>
+      <c r="M79" t="s">
+        <v>11</v>
+      </c>
+      <c r="N79">
+        <v>14.493108749389648</v>
+      </c>
+      <c r="O79">
+        <v>0.26578444242477417</v>
+      </c>
+      <c r="P79" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>11</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U79" t="b">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="W79">
+        <v>21</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>88.420547485351562</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0.83174639940261841</v>
+      </c>
+      <c r="I80">
+        <v>1.2022895812988281</v>
+      </c>
+      <c r="J80">
+        <v>29.956264495849609</v>
+      </c>
+      <c r="K80">
+        <v>29.781898498535156</v>
+      </c>
+      <c r="L80">
+        <v>0.15125724673271179</v>
+      </c>
+      <c r="M80" t="s">
+        <v>11</v>
+      </c>
+      <c r="N80">
+        <v>14.493108749389648</v>
+      </c>
+      <c r="O80">
+        <v>0.26578444242477417</v>
+      </c>
+      <c r="P80" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80" t="b">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U80" t="b">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>22</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>88.579505920410156</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0.83174639940261841</v>
+      </c>
+      <c r="I81">
+        <v>1.2022895812988281</v>
+      </c>
+      <c r="J81">
+        <v>29.70343017578125</v>
+      </c>
+      <c r="K81">
+        <v>29.781898498535156</v>
+      </c>
+      <c r="L81">
+        <v>0.15125724673271179</v>
+      </c>
+      <c r="M81" t="s">
+        <v>11</v>
+      </c>
+      <c r="N81">
+        <v>14.493108749389648</v>
+      </c>
+      <c r="O81">
+        <v>0.26578444242477417</v>
+      </c>
+      <c r="P81" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>11</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81" t="b">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U81" t="b">
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>20</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <v>88.579505920410156</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82">
+        <v>16.924409866333008</v>
+      </c>
+      <c r="K82">
+        <v>16.549365997314453</v>
+      </c>
+      <c r="L82">
+        <v>0.5303921103477478</v>
+      </c>
+      <c r="M82" t="s">
+        <v>11</v>
+      </c>
+      <c r="N82" t="s">
+        <v>11</v>
+      </c>
+      <c r="O82" t="s">
+        <v>11</v>
+      </c>
+      <c r="P82" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>11</v>
+      </c>
+      <c r="R82" t="s">
+        <v>11</v>
+      </c>
+      <c r="S82" t="b">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U82" t="b">
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>10</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>84.10797119140625</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83">
+        <v>16.174322128295898</v>
+      </c>
+      <c r="K83">
+        <v>16.549365997314453</v>
+      </c>
+      <c r="L83">
+        <v>0.5303921103477478</v>
+      </c>
+      <c r="M83" t="s">
+        <v>11</v>
+      </c>
+      <c r="N83" t="s">
+        <v>11</v>
+      </c>
+      <c r="O83" t="s">
+        <v>11</v>
+      </c>
+      <c r="P83" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>11</v>
+      </c>
+      <c r="R83" t="s">
+        <v>11</v>
+      </c>
+      <c r="S83" t="b">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U83" t="b">
+        <v>1</v>
+      </c>
+      <c r="V83">
+        <v>3</v>
+      </c>
+      <c r="W83">
+        <v>9</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
+        <v>84.09747314453125</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84">
+        <v>15.13425350189209</v>
+      </c>
+      <c r="K84">
+        <v>15.288789749145508</v>
+      </c>
+      <c r="L84">
+        <v>0.21854658424854279</v>
+      </c>
+      <c r="M84" t="s">
+        <v>11</v>
+      </c>
+      <c r="N84" t="s">
+        <v>11</v>
+      </c>
+      <c r="O84" t="s">
+        <v>11</v>
+      </c>
+      <c r="P84" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>11</v>
+      </c>
+      <c r="R84" t="s">
+        <v>11</v>
+      </c>
+      <c r="S84" t="b">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U84" t="b">
+        <v>1</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
         <v>8</v>
       </c>
-      <c r="X78">
-        <v>1</v>
-      </c>
-      <c r="Y78">
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84">
+        <v>83.948394775390625</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85">
+        <v>15.443325042724609</v>
+      </c>
+      <c r="K85">
+        <v>15.288789749145508</v>
+      </c>
+      <c r="L85">
+        <v>0.21854658424854279</v>
+      </c>
+      <c r="M85" t="s">
+        <v>11</v>
+      </c>
+      <c r="N85" t="s">
+        <v>11</v>
+      </c>
+      <c r="O85" t="s">
+        <v>11</v>
+      </c>
+      <c r="P85" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>11</v>
+      </c>
+      <c r="R85" t="s">
+        <v>11</v>
+      </c>
+      <c r="S85" t="b">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U85" t="b">
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <v>8</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+      <c r="Y85">
         <v>84.257492065429688</v>
       </c>
-      <c r="Z78" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>18</v>
+      <c r="Z85" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/11_27_19_Cobi_Combo.xlsx
+++ b/11_27_19_Cobi_Combo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigehalas/ph-future-phd/ph-future-phd/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9BD7B-7E78-AD45-A97C-838342DF3344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="127">
   <si>
     <t>Block Type</t>
   </si>
@@ -405,12 +406,15 @@
   </si>
   <si>
     <t>Reference Sample</t>
+  </si>
+  <si>
+    <t>3T3 SS  0 nM Cobi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -451,6 +455,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -718,11 +725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5288,10 +5295,10 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -5306,31 +5313,31 @@
         <v>17</v>
       </c>
       <c r="G57">
-        <v>0.65846818685531616</v>
+        <v>1.0766302347183228</v>
       </c>
       <c r="H57">
-        <v>0.28137373924255371</v>
+        <v>0.59848999977111816</v>
       </c>
       <c r="I57">
-        <v>1.5409409999847412</v>
+        <v>1.9367619752883911</v>
       </c>
       <c r="J57">
-        <v>31.896543502807617</v>
+        <v>34.199562072753906</v>
       </c>
       <c r="K57">
-        <v>30.614816665649414</v>
+        <v>34.868343353271484</v>
       </c>
       <c r="L57">
-        <v>1.1711615324020386</v>
+        <v>0.80147957801818848</v>
       </c>
       <c r="M57" t="s">
         <v>11</v>
       </c>
       <c r="N57">
-        <v>15.095922470092773</v>
+        <v>18.223739624023438</v>
       </c>
       <c r="O57">
-        <v>1.2266260385513306</v>
+        <v>0.84712380170822144</v>
       </c>
       <c r="P57" t="s">
         <v>11</v>
@@ -5339,7 +5346,7 @@
         <v>11</v>
       </c>
       <c r="R57">
-        <v>0.60281437635421753</v>
+        <v>-0.10652288049459457</v>
       </c>
       <c r="S57" t="b">
         <v>1</v>
@@ -5360,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="Y57">
-        <v>88.420547485351562</v>
+        <v>88.431045532226562</v>
       </c>
       <c r="Z57" t="s">
         <v>11</v>
@@ -5380,10 +5387,10 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -5398,31 +5405,31 @@
         <v>17</v>
       </c>
       <c r="G58">
-        <v>0.65846818685531616</v>
+        <v>1.0766302347183228</v>
       </c>
       <c r="H58">
-        <v>0.28137373924255371</v>
+        <v>0.59848999977111816</v>
       </c>
       <c r="I58">
-        <v>1.5409409999847412</v>
+        <v>1.9367619752883911</v>
       </c>
       <c r="J58">
-        <v>30.347452163696289</v>
+        <v>34.648735046386719</v>
       </c>
       <c r="K58">
-        <v>30.614816665649414</v>
+        <v>34.868343353271484</v>
       </c>
       <c r="L58">
-        <v>1.1711615324020386</v>
+        <v>0.80147957801818848</v>
       </c>
       <c r="M58" t="s">
         <v>11</v>
       </c>
       <c r="N58">
-        <v>15.095922470092773</v>
+        <v>18.223739624023438</v>
       </c>
       <c r="O58">
-        <v>1.2266260385513306</v>
+        <v>0.84712380170822144</v>
       </c>
       <c r="P58" t="s">
         <v>11</v>
@@ -5431,7 +5438,7 @@
         <v>11</v>
       </c>
       <c r="R58">
-        <v>0.60281437635421753</v>
+        <v>-0.10652288049459457</v>
       </c>
       <c r="S58" t="b">
         <v>1</v>
@@ -5446,13 +5453,13 @@
         <v>3</v>
       </c>
       <c r="W58">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X58">
         <v>1</v>
       </c>
       <c r="Y58">
-        <v>88.430465698242188</v>
+        <v>88.281974792480469</v>
       </c>
       <c r="Z58" t="s">
         <v>11</v>
@@ -5472,10 +5479,10 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -5490,31 +5497,31 @@
         <v>17</v>
       </c>
       <c r="G59">
-        <v>0.65846818685531616</v>
+        <v>1.0766302347183228</v>
       </c>
       <c r="H59">
-        <v>0.28137373924255371</v>
+        <v>0.59848999977111816</v>
       </c>
       <c r="I59">
-        <v>1.5409409999847412</v>
+        <v>1.9367619752883911</v>
       </c>
       <c r="J59">
-        <v>29.600454330444336</v>
+        <v>35.756736755371094</v>
       </c>
       <c r="K59">
-        <v>30.614816665649414</v>
+        <v>34.868343353271484</v>
       </c>
       <c r="L59">
-        <v>1.1711615324020386</v>
+        <v>0.80147957801818848</v>
       </c>
       <c r="M59" t="s">
         <v>11</v>
       </c>
       <c r="N59">
-        <v>15.095922470092773</v>
+        <v>18.223739624023438</v>
       </c>
       <c r="O59">
-        <v>1.2266260385513306</v>
+        <v>0.84712380170822144</v>
       </c>
       <c r="P59" t="s">
         <v>11</v>
@@ -5523,7 +5530,7 @@
         <v>11</v>
       </c>
       <c r="R59">
-        <v>0.60281437635421753</v>
+        <v>-0.10652288049459457</v>
       </c>
       <c r="S59" t="b">
         <v>1</v>
@@ -5538,19 +5545,19 @@
         <v>3</v>
       </c>
       <c r="W59">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>88.430465698242188</v>
+        <v>82.755821228027344</v>
       </c>
       <c r="Z59">
-        <v>65.032012939453125</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>11</v>
+        <v>88.122406005859375</v>
+      </c>
+      <c r="AA59">
+        <v>68.594017028808594</v>
       </c>
       <c r="AB59" t="s">
         <v>11</v>
@@ -5564,10 +5571,10 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -5582,31 +5589,31 @@
         <v>17</v>
       </c>
       <c r="G60">
-        <v>1.2573306560516357</v>
+        <v>2.0756330490112305</v>
       </c>
       <c r="H60">
-        <v>0.87610244750976562</v>
+        <v>1.6339141130447388</v>
       </c>
       <c r="I60">
-        <v>1.804446816444397</v>
+        <v>2.6367678642272949</v>
       </c>
       <c r="J60">
-        <v>29.559486389160156</v>
+        <v>32.513992309570312</v>
       </c>
       <c r="K60">
-        <v>29.523340225219727</v>
+        <v>32.603313446044922</v>
       </c>
       <c r="L60">
-        <v>0.50176417827606201</v>
+        <v>0.31420910358428955</v>
       </c>
       <c r="M60" t="s">
         <v>11</v>
       </c>
       <c r="N60">
-        <v>14.162744522094727</v>
+        <v>17.276710510253906</v>
       </c>
       <c r="O60">
-        <v>0.52119255065917969</v>
+        <v>0.34521925449371338</v>
       </c>
       <c r="P60" t="s">
         <v>11</v>
@@ -5615,7 +5622,7 @@
         <v>11</v>
       </c>
       <c r="R60">
-        <v>-0.33036407828330994</v>
+        <v>-1.0535513162612915</v>
       </c>
       <c r="S60" t="b">
         <v>1</v>
@@ -5630,13 +5637,13 @@
         <v>3</v>
       </c>
       <c r="W60">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X60">
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>88.4251708984375</v>
+        <v>88.271476745605469</v>
       </c>
       <c r="Z60" t="s">
         <v>11</v>
@@ -5648,7 +5655,7 @@
         <v>11</v>
       </c>
       <c r="AC60" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AD60" t="s">
         <v>18</v>
@@ -5656,10 +5663,10 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -5674,31 +5681,31 @@
         <v>17</v>
       </c>
       <c r="G61">
-        <v>1.2573306560516357</v>
+        <v>2.0756330490112305</v>
       </c>
       <c r="H61">
-        <v>0.87610244750976562</v>
+        <v>1.6339141130447388</v>
       </c>
       <c r="I61">
-        <v>1.804446816444397</v>
+        <v>2.6367678642272949</v>
       </c>
       <c r="J61">
-        <v>30.006053924560547</v>
+        <v>32.343433380126953</v>
       </c>
       <c r="K61">
-        <v>29.523340225219727</v>
+        <v>32.603313446044922</v>
       </c>
       <c r="L61">
-        <v>0.50176417827606201</v>
+        <v>0.31420910358428955</v>
       </c>
       <c r="M61" t="s">
         <v>11</v>
       </c>
       <c r="N61">
-        <v>14.162744522094727</v>
+        <v>17.276710510253906</v>
       </c>
       <c r="O61">
-        <v>0.52119255065917969</v>
+        <v>0.34521925449371338</v>
       </c>
       <c r="P61" t="s">
         <v>11</v>
@@ -5707,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="R61">
-        <v>-0.33036407828330994</v>
+        <v>-1.0535513162612915</v>
       </c>
       <c r="S61" t="b">
         <v>1</v>
@@ -5722,13 +5729,13 @@
         <v>3</v>
       </c>
       <c r="W61">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X61">
         <v>1</v>
       </c>
       <c r="Y61">
-        <v>88.4251708984375</v>
+        <v>88.579505920410156</v>
       </c>
       <c r="Z61" t="s">
         <v>11</v>
@@ -5740,7 +5747,7 @@
         <v>11</v>
       </c>
       <c r="AC61" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AD61" t="s">
         <v>18</v>
@@ -5748,10 +5755,10 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -5766,31 +5773,31 @@
         <v>17</v>
       </c>
       <c r="G62">
-        <v>1.2573306560516357</v>
+        <v>2.0756330490112305</v>
       </c>
       <c r="H62">
-        <v>0.87610244750976562</v>
+        <v>1.6339141130447388</v>
       </c>
       <c r="I62">
-        <v>1.804446816444397</v>
+        <v>2.6367678642272949</v>
       </c>
       <c r="J62">
-        <v>29.004480361938477</v>
+        <v>32.952510833740234</v>
       </c>
       <c r="K62">
-        <v>29.523340225219727</v>
+        <v>32.603313446044922</v>
       </c>
       <c r="L62">
-        <v>0.50176417827606201</v>
+        <v>0.31420910358428955</v>
       </c>
       <c r="M62" t="s">
         <v>11</v>
       </c>
       <c r="N62">
-        <v>14.162744522094727</v>
+        <v>17.276710510253906</v>
       </c>
       <c r="O62">
-        <v>0.52119255065917969</v>
+        <v>0.34521925449371338</v>
       </c>
       <c r="P62" t="s">
         <v>11</v>
@@ -5799,7 +5806,7 @@
         <v>11</v>
       </c>
       <c r="R62">
-        <v>-0.33036407828330994</v>
+        <v>-1.0535513162612915</v>
       </c>
       <c r="S62" t="b">
         <v>1</v>
@@ -5814,16 +5821,16 @@
         <v>3</v>
       </c>
       <c r="W62">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X62">
         <v>1</v>
       </c>
       <c r="Y62">
-        <v>88.426948547363281</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>11</v>
+        <v>88.579505920410156</v>
+      </c>
+      <c r="Z62">
+        <v>64.137802124023438</v>
       </c>
       <c r="AA62" t="s">
         <v>11</v>
@@ -5832,18 +5839,18 @@
         <v>11</v>
       </c>
       <c r="AC62" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD62" t="s">
         <v>24</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -5858,31 +5865,31 @@
         <v>17</v>
       </c>
       <c r="G63">
-        <v>1.8893940448760986</v>
+        <v>1.2087968587875366</v>
       </c>
       <c r="H63">
-        <v>1.3197791576385498</v>
+        <v>0.76517170667648315</v>
       </c>
       <c r="I63">
-        <v>2.7048537731170654</v>
+        <v>1.909623384475708</v>
       </c>
       <c r="J63">
-        <v>29.341514587402344</v>
+        <v>33.798820495605469</v>
       </c>
       <c r="K63">
-        <v>29.259740829467773</v>
+        <v>33.443065643310547</v>
       </c>
       <c r="L63">
-        <v>0.44023615121841431</v>
+        <v>0.65821969509124756</v>
       </c>
       <c r="M63" t="s">
         <v>11</v>
       </c>
       <c r="N63">
-        <v>13.57518482208252</v>
+        <v>18.056690216064453</v>
       </c>
       <c r="O63">
-        <v>0.51762700080871582</v>
+        <v>0.65971636772155762</v>
       </c>
       <c r="P63" t="s">
         <v>11</v>
@@ -5891,7 +5898,7 @@
         <v>11</v>
       </c>
       <c r="R63">
-        <v>-0.91792362928390503</v>
+        <v>-0.27357181906700134</v>
       </c>
       <c r="S63" t="b">
         <v>1</v>
@@ -5906,16 +5913,16 @@
         <v>3</v>
       </c>
       <c r="W63">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="X63">
         <v>1</v>
       </c>
       <c r="Y63">
-        <v>88.128875732421875</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>11</v>
+        <v>88.276123046875</v>
+      </c>
+      <c r="Z63">
+        <v>82.314460754394531</v>
       </c>
       <c r="AA63" t="s">
         <v>11</v>
@@ -5924,18 +5931,18 @@
         <v>11</v>
       </c>
       <c r="AC63" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD63" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -5950,31 +5957,31 @@
         <v>17</v>
       </c>
       <c r="G64">
-        <v>1.8893940448760986</v>
+        <v>1.2087968587875366</v>
       </c>
       <c r="H64">
-        <v>1.3197791576385498</v>
+        <v>0.76517170667648315</v>
       </c>
       <c r="I64">
-        <v>2.7048537731170654</v>
+        <v>1.909623384475708</v>
       </c>
       <c r="J64">
-        <v>29.653354644775391</v>
+        <v>32.683525085449219</v>
       </c>
       <c r="K64">
-        <v>29.259740829467773</v>
+        <v>33.443065643310547</v>
       </c>
       <c r="L64">
-        <v>0.44023615121841431</v>
+        <v>0.65821969509124756</v>
       </c>
       <c r="M64" t="s">
         <v>11</v>
       </c>
       <c r="N64">
-        <v>13.57518482208252</v>
+        <v>18.056690216064453</v>
       </c>
       <c r="O64">
-        <v>0.51762700080871582</v>
+        <v>0.65971636772155762</v>
       </c>
       <c r="P64" t="s">
         <v>11</v>
@@ -5983,7 +5990,7 @@
         <v>11</v>
       </c>
       <c r="R64">
-        <v>-0.91792362928390503</v>
+        <v>-0.27357181906700134</v>
       </c>
       <c r="S64" t="b">
         <v>1</v>
@@ -5998,13 +6005,13 @@
         <v>3</v>
       </c>
       <c r="W64">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X64">
         <v>1</v>
       </c>
       <c r="Y64">
-        <v>88.132827758789062</v>
+        <v>88.4251708984375</v>
       </c>
       <c r="Z64" t="s">
         <v>11</v>
@@ -6016,7 +6023,7 @@
         <v>11</v>
       </c>
       <c r="AC64" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD64" t="s">
         <v>18</v>
@@ -6024,10 +6031,10 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -6042,31 +6049,31 @@
         <v>17</v>
       </c>
       <c r="G65">
-        <v>1.8893940448760986</v>
+        <v>1.2087968587875366</v>
       </c>
       <c r="H65">
-        <v>1.3197791576385498</v>
+        <v>0.76517170667648315</v>
       </c>
       <c r="I65">
-        <v>2.7048537731170654</v>
+        <v>1.909623384475708</v>
       </c>
       <c r="J65">
-        <v>28.78434944152832</v>
+        <v>33.846851348876953</v>
       </c>
       <c r="K65">
-        <v>29.259740829467773</v>
+        <v>33.443065643310547</v>
       </c>
       <c r="L65">
-        <v>0.44023615121841431</v>
+        <v>0.65821969509124756</v>
       </c>
       <c r="M65" t="s">
         <v>11</v>
       </c>
       <c r="N65">
-        <v>13.57518482208252</v>
+        <v>18.056690216064453</v>
       </c>
       <c r="O65">
-        <v>0.51762700080871582</v>
+        <v>0.65971636772155762</v>
       </c>
       <c r="P65" t="s">
         <v>11</v>
@@ -6075,7 +6082,7 @@
         <v>11</v>
       </c>
       <c r="R65">
-        <v>-0.91792362928390503</v>
+        <v>-0.27357181906700134</v>
       </c>
       <c r="S65" t="b">
         <v>1</v>
@@ -6090,13 +6097,13 @@
         <v>3</v>
       </c>
       <c r="W65">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X65">
         <v>1</v>
       </c>
       <c r="Y65">
-        <v>87.983810424804688</v>
+        <v>88.426948547363281</v>
       </c>
       <c r="Z65" t="s">
         <v>11</v>
@@ -6108,7 +6115,7 @@
         <v>11</v>
       </c>
       <c r="AC65" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD65" t="s">
         <v>18</v>
@@ -6116,13 +6123,13 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -6133,32 +6140,32 @@
       <c r="F66" t="s">
         <v>17</v>
       </c>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" t="s">
-        <v>11</v>
+      <c r="G66">
+        <v>0.87927502393722534</v>
+      </c>
+      <c r="H66">
+        <v>0.56577318906784058</v>
+      </c>
+      <c r="I66">
+        <v>1.3664919137954712</v>
       </c>
       <c r="J66">
-        <v>16.118537902832031</v>
+        <v>34.849483489990234</v>
       </c>
       <c r="K66">
-        <v>16.174312591552734</v>
+        <v>34.181766510009766</v>
       </c>
       <c r="L66">
-        <v>7.5906984508037567E-2</v>
+        <v>0.61532920598983765</v>
       </c>
       <c r="M66" t="s">
         <v>11</v>
       </c>
-      <c r="N66" t="s">
-        <v>11</v>
-      </c>
-      <c r="O66" t="s">
-        <v>11</v>
+      <c r="N66">
+        <v>18.515876770019531</v>
+      </c>
+      <c r="O66">
+        <v>0.63609057664871216</v>
       </c>
       <c r="P66" t="s">
         <v>11</v>
@@ -6166,14 +6173,14 @@
       <c r="Q66" t="s">
         <v>11</v>
       </c>
-      <c r="R66" t="s">
-        <v>11</v>
+      <c r="R66">
+        <v>0.18561363220214844</v>
       </c>
       <c r="S66" t="b">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U66" t="b">
         <v>1</v>
@@ -6182,13 +6189,13 @@
         <v>3</v>
       </c>
       <c r="W66">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="X66">
         <v>1</v>
       </c>
       <c r="Y66">
-        <v>84.10797119140625</v>
+        <v>88.277915954589844</v>
       </c>
       <c r="Z66" t="s">
         <v>11</v>
@@ -6200,7 +6207,7 @@
         <v>11</v>
       </c>
       <c r="AC66" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD66" t="s">
         <v>18</v>
@@ -6208,13 +6215,13 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -6225,32 +6232,32 @@
       <c r="F67" t="s">
         <v>17</v>
       </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" t="s">
-        <v>11</v>
+      <c r="G67">
+        <v>0.87927502393722534</v>
+      </c>
+      <c r="H67">
+        <v>0.56577318906784058</v>
+      </c>
+      <c r="I67">
+        <v>1.3664919137954712</v>
       </c>
       <c r="J67">
-        <v>16.143644332885742</v>
+        <v>33.637561798095703</v>
       </c>
       <c r="K67">
-        <v>16.174312591552734</v>
+        <v>34.181766510009766</v>
       </c>
       <c r="L67">
-        <v>7.5906984508037567E-2</v>
+        <v>0.61532920598983765</v>
       </c>
       <c r="M67" t="s">
         <v>11</v>
       </c>
-      <c r="N67" t="s">
-        <v>11</v>
-      </c>
-      <c r="O67" t="s">
-        <v>11</v>
+      <c r="N67">
+        <v>18.515876770019531</v>
+      </c>
+      <c r="O67">
+        <v>0.63609057664871216</v>
       </c>
       <c r="P67" t="s">
         <v>11</v>
@@ -6258,14 +6265,14 @@
       <c r="Q67" t="s">
         <v>11</v>
       </c>
-      <c r="R67" t="s">
-        <v>11</v>
+      <c r="R67">
+        <v>0.18561363220214844</v>
       </c>
       <c r="S67" t="b">
         <v>1</v>
       </c>
       <c r="T67">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U67" t="b">
         <v>1</v>
@@ -6274,16 +6281,16 @@
         <v>3</v>
       </c>
       <c r="W67">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="X67">
         <v>1</v>
       </c>
       <c r="Y67">
-        <v>83.958892822265625</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>11</v>
+        <v>88.132827758789062</v>
+      </c>
+      <c r="Z67">
+        <v>81.873947143554688</v>
       </c>
       <c r="AA67" t="s">
         <v>11</v>
@@ -6292,21 +6299,21 @@
         <v>11</v>
       </c>
       <c r="AC67" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD67" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -6317,32 +6324,32 @@
       <c r="F68" t="s">
         <v>17</v>
       </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" t="s">
-        <v>11</v>
+      <c r="G68">
+        <v>0.87927502393722534</v>
+      </c>
+      <c r="H68">
+        <v>0.56577318906784058</v>
+      </c>
+      <c r="I68">
+        <v>1.3664919137954712</v>
       </c>
       <c r="J68">
-        <v>16.26075553894043</v>
+        <v>34.058254241943359</v>
       </c>
       <c r="K68">
-        <v>16.174312591552734</v>
+        <v>34.181766510009766</v>
       </c>
       <c r="L68">
-        <v>7.5906984508037567E-2</v>
+        <v>0.61532920598983765</v>
       </c>
       <c r="M68" t="s">
         <v>11</v>
       </c>
-      <c r="N68" t="s">
-        <v>11</v>
-      </c>
-      <c r="O68" t="s">
-        <v>11</v>
+      <c r="N68">
+        <v>18.515876770019531</v>
+      </c>
+      <c r="O68">
+        <v>0.63609057664871216</v>
       </c>
       <c r="P68" t="s">
         <v>11</v>
@@ -6350,14 +6357,14 @@
       <c r="Q68" t="s">
         <v>11</v>
       </c>
-      <c r="R68" t="s">
-        <v>11</v>
+      <c r="R68">
+        <v>0.18561363220214844</v>
       </c>
       <c r="S68" t="b">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U68" t="b">
         <v>1</v>
@@ -6366,13 +6373,13 @@
         <v>3</v>
       </c>
       <c r="W68">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="X68">
         <v>1</v>
       </c>
       <c r="Y68">
-        <v>84.09747314453125</v>
+        <v>87.983810424804688</v>
       </c>
       <c r="Z68" t="s">
         <v>11</v>
@@ -6384,7 +6391,7 @@
         <v>11</v>
       </c>
       <c r="AC68" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD68" t="s">
         <v>18</v>
@@ -6392,10 +6399,10 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
         <v>60</v>
@@ -6419,13 +6426,13 @@
         <v>11</v>
       </c>
       <c r="J69">
-        <v>15.776762008666992</v>
+        <v>16.644441604614258</v>
       </c>
       <c r="K69">
-        <v>15.518894195556641</v>
+        <v>16.64460563659668</v>
       </c>
       <c r="L69">
-        <v>0.36468082666397095</v>
+        <v>0.27431586384773254</v>
       </c>
       <c r="M69" t="s">
         <v>11</v>
@@ -6458,13 +6465,13 @@
         <v>3</v>
       </c>
       <c r="W69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X69">
         <v>1</v>
       </c>
       <c r="Y69">
-        <v>83.948394775390625</v>
+        <v>83.958892822265625</v>
       </c>
       <c r="Z69" t="s">
         <v>11</v>
@@ -6484,10 +6491,10 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
         <v>60</v>
@@ -6511,13 +6518,13 @@
         <v>11</v>
       </c>
       <c r="J70">
-        <v>15.261025428771973</v>
+        <v>16.919002532958984</v>
       </c>
       <c r="K70">
-        <v>15.518894195556641</v>
+        <v>16.64460563659668</v>
       </c>
       <c r="L70">
-        <v>0.36468082666397095</v>
+        <v>0.27431586384773254</v>
       </c>
       <c r="M70" t="s">
         <v>11</v>
@@ -6550,16 +6557,16 @@
         <v>3</v>
       </c>
       <c r="W70">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X70">
         <v>1</v>
       </c>
       <c r="Y70">
-        <v>84.257492065429688</v>
-      </c>
-      <c r="Z70">
-        <v>64.137802124023438</v>
+        <v>84.10797119140625</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>11</v>
       </c>
       <c r="AA70" t="s">
         <v>11</v>
@@ -6571,15 +6578,15 @@
         <v>18</v>
       </c>
       <c r="AD70" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>60</v>
@@ -6603,13 +6610,13 @@
         <v>11</v>
       </c>
       <c r="J71">
-        <v>15.50410270690918</v>
+        <v>16.370370864868164</v>
       </c>
       <c r="K71">
-        <v>15.360595703125</v>
+        <v>16.64460563659668</v>
       </c>
       <c r="L71">
-        <v>0.14097651839256287</v>
+        <v>0.27431586384773254</v>
       </c>
       <c r="M71" t="s">
         <v>11</v>
@@ -6642,13 +6649,13 @@
         <v>3</v>
       </c>
       <c r="W71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X71">
         <v>1</v>
       </c>
       <c r="Y71">
-        <v>84.10296630859375</v>
+        <v>83.948394775390625</v>
       </c>
       <c r="Z71" t="s">
         <v>11</v>
@@ -6668,10 +6675,10 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>60</v>
@@ -6695,13 +6702,13 @@
         <v>11</v>
       </c>
       <c r="J72">
-        <v>15.355390548706055</v>
+        <v>15.427717208862305</v>
       </c>
       <c r="K72">
-        <v>15.360595703125</v>
+        <v>15.326601028442383</v>
       </c>
       <c r="L72">
-        <v>0.14097651839256287</v>
+        <v>0.14299987256526947</v>
       </c>
       <c r="M72" t="s">
         <v>11</v>
@@ -6734,13 +6741,13 @@
         <v>3</v>
       </c>
       <c r="W72">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X72">
         <v>1</v>
       </c>
       <c r="Y72">
-        <v>84.10296630859375</v>
+        <v>84.257492065429688</v>
       </c>
       <c r="Z72" t="s">
         <v>11</v>
@@ -6760,10 +6767,10 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>60</v>
@@ -6787,13 +6794,13 @@
         <v>11</v>
       </c>
       <c r="J73">
-        <v>15.222293853759766</v>
+        <v>15.225484848022461</v>
       </c>
       <c r="K73">
-        <v>15.360595703125</v>
+        <v>15.326601028442383</v>
       </c>
       <c r="L73">
-        <v>0.14097651839256287</v>
+        <v>0.14299987256526947</v>
       </c>
       <c r="M73" t="s">
         <v>11</v>
@@ -6826,16 +6833,16 @@
         <v>3</v>
       </c>
       <c r="W73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X73">
         <v>1</v>
       </c>
       <c r="Y73">
-        <v>84.104988098144531</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>11</v>
+        <v>84.10845947265625</v>
+      </c>
+      <c r="Z73">
+        <v>64.137802124023438</v>
       </c>
       <c r="AA73" t="s">
         <v>11</v>
@@ -6847,15 +6854,15 @@
         <v>18</v>
       </c>
       <c r="AD73" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
         <v>60</v>
@@ -6879,13 +6886,13 @@
         <v>11</v>
       </c>
       <c r="J74">
-        <v>15.492032051086426</v>
+        <v>15.35496997833252</v>
       </c>
       <c r="K74">
-        <v>15.684555053710938</v>
+        <v>15.386375427246094</v>
       </c>
       <c r="L74">
-        <v>0.27226796746253967</v>
+        <v>4.4413335621356964E-2</v>
       </c>
       <c r="M74" t="s">
         <v>11</v>
@@ -6918,13 +6925,13 @@
         <v>3</v>
       </c>
       <c r="W74">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X74">
         <v>1</v>
       </c>
       <c r="Y74">
-        <v>84.104988098144531</v>
+        <v>84.10296630859375</v>
       </c>
       <c r="Z74" t="s">
         <v>11</v>
@@ -6944,10 +6951,10 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
         <v>60</v>
@@ -6971,13 +6978,13 @@
         <v>11</v>
       </c>
       <c r="J75">
-        <v>15.877077102661133</v>
+        <v>15.417779922485352</v>
       </c>
       <c r="K75">
-        <v>15.684555053710938</v>
+        <v>15.386375427246094</v>
       </c>
       <c r="L75">
-        <v>0.27226796746253967</v>
+        <v>4.4413335621356964E-2</v>
       </c>
       <c r="M75" t="s">
         <v>11</v>
@@ -7010,13 +7017,13 @@
         <v>3</v>
       </c>
       <c r="W75">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X75">
         <v>1</v>
       </c>
       <c r="Y75">
-        <v>83.662200927734375</v>
+        <v>84.104988098144531</v>
       </c>
       <c r="Z75" t="s">
         <v>11</v>
@@ -7036,13 +7043,13 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -7053,32 +7060,32 @@
       <c r="F76" t="s">
         <v>17</v>
       </c>
-      <c r="G76">
-        <v>1.2679612636566162</v>
-      </c>
-      <c r="H76">
-        <v>0.69266778230667114</v>
-      </c>
-      <c r="I76">
-        <v>2.3210632801055908</v>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" t="s">
+        <v>11</v>
       </c>
       <c r="J76">
-        <v>29.939447402954102</v>
+        <v>15.486520767211914</v>
       </c>
       <c r="K76">
-        <v>30.69996452331543</v>
+        <v>15.665890693664551</v>
       </c>
       <c r="L76">
-        <v>0.69249415397644043</v>
+        <v>0.16118699312210083</v>
       </c>
       <c r="M76" t="s">
         <v>11</v>
       </c>
-      <c r="N76">
-        <v>14.15059757232666</v>
-      </c>
-      <c r="O76">
-        <v>0.87227517366409302</v>
+      <c r="N76" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" t="s">
+        <v>11</v>
       </c>
       <c r="P76" t="s">
         <v>11</v>
@@ -7086,14 +7093,14 @@
       <c r="Q76" t="s">
         <v>11</v>
       </c>
-      <c r="R76">
-        <v>-0.34251070022583008</v>
+      <c r="R76" t="s">
+        <v>11</v>
       </c>
       <c r="S76" t="b">
         <v>1</v>
       </c>
       <c r="T76">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U76" t="b">
         <v>1</v>
@@ -7102,13 +7109,13 @@
         <v>3</v>
       </c>
       <c r="W76">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="X76">
         <v>1</v>
       </c>
       <c r="Y76">
-        <v>88.281974792480469</v>
+        <v>84.104988098144531</v>
       </c>
       <c r="Z76" t="s">
         <v>11</v>
@@ -7120,7 +7127,7 @@
         <v>11</v>
       </c>
       <c r="AC76" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AD76" t="s">
         <v>18</v>
@@ -7128,13 +7135,13 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
@@ -7145,32 +7152,32 @@
       <c r="F77" t="s">
         <v>17</v>
       </c>
-      <c r="G77">
-        <v>1.2679612636566162</v>
-      </c>
-      <c r="H77">
-        <v>0.69266778230667114</v>
-      </c>
-      <c r="I77">
-        <v>2.3210632801055908</v>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
       </c>
       <c r="J77">
-        <v>31.294136047363281</v>
+        <v>15.798600196838379</v>
       </c>
       <c r="K77">
-        <v>30.69996452331543</v>
+        <v>15.665890693664551</v>
       </c>
       <c r="L77">
-        <v>0.69249415397644043</v>
+        <v>0.16118699312210083</v>
       </c>
       <c r="M77" t="s">
         <v>11</v>
       </c>
-      <c r="N77">
-        <v>14.15059757232666</v>
-      </c>
-      <c r="O77">
-        <v>0.87227517366409302</v>
+      <c r="N77" t="s">
+        <v>11</v>
+      </c>
+      <c r="O77" t="s">
+        <v>11</v>
       </c>
       <c r="P77" t="s">
         <v>11</v>
@@ -7178,14 +7185,14 @@
       <c r="Q77" t="s">
         <v>11</v>
       </c>
-      <c r="R77">
-        <v>-0.34251070022583008</v>
+      <c r="R77" t="s">
+        <v>11</v>
       </c>
       <c r="S77" t="b">
         <v>1</v>
       </c>
       <c r="T77">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U77" t="b">
         <v>1</v>
@@ -7194,13 +7201,13 @@
         <v>3</v>
       </c>
       <c r="W77">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="X77">
         <v>1</v>
       </c>
       <c r="Y77">
-        <v>88.281974792480469</v>
+        <v>83.81121826171875</v>
       </c>
       <c r="Z77" t="s">
         <v>11</v>
@@ -7212,7 +7219,7 @@
         <v>11</v>
       </c>
       <c r="AC77" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AD77" t="s">
         <v>18</v>
@@ -7220,13 +7227,13 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -7237,32 +7244,32 @@
       <c r="F78" t="s">
         <v>17</v>
       </c>
-      <c r="G78">
-        <v>1.2679612636566162</v>
-      </c>
-      <c r="H78">
-        <v>0.69266778230667114</v>
-      </c>
-      <c r="I78">
-        <v>2.3210632801055908</v>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
       </c>
       <c r="J78">
-        <v>30.866308212280273</v>
+        <v>15.712550163269043</v>
       </c>
       <c r="K78">
-        <v>30.69996452331543</v>
+        <v>15.665890693664551</v>
       </c>
       <c r="L78">
-        <v>0.69249415397644043</v>
+        <v>0.16118699312210083</v>
       </c>
       <c r="M78" t="s">
         <v>11</v>
       </c>
-      <c r="N78">
-        <v>14.15059757232666</v>
-      </c>
-      <c r="O78">
-        <v>0.87227517366409302</v>
+      <c r="N78" t="s">
+        <v>11</v>
+      </c>
+      <c r="O78" t="s">
+        <v>11</v>
       </c>
       <c r="P78" t="s">
         <v>11</v>
@@ -7270,14 +7277,14 @@
       <c r="Q78" t="s">
         <v>11</v>
       </c>
-      <c r="R78">
-        <v>-0.34251070022583008</v>
+      <c r="R78" t="s">
+        <v>11</v>
       </c>
       <c r="S78" t="b">
         <v>1</v>
       </c>
       <c r="T78">
-        <v>16141.126521381582</v>
+        <v>14469.114257812496</v>
       </c>
       <c r="U78" t="b">
         <v>1</v>
@@ -7286,13 +7293,13 @@
         <v>3</v>
       </c>
       <c r="W78">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="X78">
         <v>1</v>
       </c>
       <c r="Y78">
-        <v>88.420547485351562</v>
+        <v>83.662200927734375</v>
       </c>
       <c r="Z78" t="s">
         <v>11</v>
@@ -7304,7 +7311,7 @@
         <v>11</v>
       </c>
       <c r="AC78" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AD78" t="s">
         <v>18</v>
@@ -7312,10 +7319,10 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -7333,28 +7340,28 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>0.83174639940261841</v>
+        <v>0.55850732326507568</v>
       </c>
       <c r="I79">
-        <v>1.2022895812988281</v>
+        <v>1.7904869318008423</v>
       </c>
       <c r="J79">
-        <v>29.685998916625977</v>
+        <v>33.543315887451172</v>
       </c>
       <c r="K79">
-        <v>29.781898498535156</v>
+        <v>34.50457763671875</v>
       </c>
       <c r="L79">
-        <v>0.15125724673271179</v>
+        <v>0.83691668510437012</v>
       </c>
       <c r="M79" t="s">
         <v>11</v>
       </c>
       <c r="N79">
-        <v>14.493108749389648</v>
+        <v>18.330263137817383</v>
       </c>
       <c r="O79">
-        <v>0.26578444242477417</v>
+        <v>0.84035199880599976</v>
       </c>
       <c r="P79" t="s">
         <v>11</v>
@@ -7378,13 +7385,13 @@
         <v>3</v>
       </c>
       <c r="W79">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X79">
         <v>1</v>
       </c>
       <c r="Y79">
-        <v>88.420547485351562</v>
+        <v>88.431045532226562</v>
       </c>
       <c r="Z79" t="s">
         <v>11</v>
@@ -7396,7 +7403,7 @@
         <v>11</v>
       </c>
       <c r="AC79" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD79" t="s">
         <v>18</v>
@@ -7404,10 +7411,10 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -7425,28 +7432,28 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>0.83174639940261841</v>
+        <v>0.55850732326507568</v>
       </c>
       <c r="I80">
-        <v>1.2022895812988281</v>
+        <v>1.7904869318008423</v>
       </c>
       <c r="J80">
-        <v>29.956264495849609</v>
+        <v>35.071315765380859</v>
       </c>
       <c r="K80">
-        <v>29.781898498535156</v>
+        <v>34.50457763671875</v>
       </c>
       <c r="L80">
-        <v>0.15125724673271179</v>
+        <v>0.83691668510437012</v>
       </c>
       <c r="M80" t="s">
         <v>11</v>
       </c>
       <c r="N80">
-        <v>14.493108749389648</v>
+        <v>18.330263137817383</v>
       </c>
       <c r="O80">
-        <v>0.26578444242477417</v>
+        <v>0.84035199880599976</v>
       </c>
       <c r="P80" t="s">
         <v>11</v>
@@ -7470,16 +7477,16 @@
         <v>3</v>
       </c>
       <c r="W80">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X80">
         <v>1</v>
       </c>
       <c r="Y80">
-        <v>88.579505920410156</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>11</v>
+        <v>88.281974792480469</v>
+      </c>
+      <c r="Z80">
+        <v>70.840591430664062</v>
       </c>
       <c r="AA80" t="s">
         <v>11</v>
@@ -7488,18 +7495,18 @@
         <v>11</v>
       </c>
       <c r="AC80" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD80" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -7517,28 +7524,28 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>0.83174639940261841</v>
+        <v>0.55850732326507568</v>
       </c>
       <c r="I81">
-        <v>1.2022895812988281</v>
+        <v>1.7904869318008423</v>
       </c>
       <c r="J81">
-        <v>29.70343017578125</v>
+        <v>34.899093627929688</v>
       </c>
       <c r="K81">
-        <v>29.781898498535156</v>
+        <v>34.50457763671875</v>
       </c>
       <c r="L81">
-        <v>0.15125724673271179</v>
+        <v>0.83691668510437012</v>
       </c>
       <c r="M81" t="s">
         <v>11</v>
       </c>
       <c r="N81">
-        <v>14.493108749389648</v>
+        <v>18.330263137817383</v>
       </c>
       <c r="O81">
-        <v>0.26578444242477417</v>
+        <v>0.84035199880599976</v>
       </c>
       <c r="P81" t="s">
         <v>11</v>
@@ -7562,13 +7569,13 @@
         <v>3</v>
       </c>
       <c r="W81">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="X81">
         <v>1</v>
       </c>
       <c r="Y81">
-        <v>88.579505920410156</v>
+        <v>88.271476745605469</v>
       </c>
       <c r="Z81" t="s">
         <v>11</v>
@@ -7580,7 +7587,7 @@
         <v>11</v>
       </c>
       <c r="AC81" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD81" t="s">
         <v>18</v>
@@ -7588,13 +7595,13 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
@@ -7605,32 +7612,32 @@
       <c r="F82" t="s">
         <v>17</v>
       </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" t="s">
-        <v>11</v>
+      <c r="G82">
+        <v>9.410944938659668</v>
+      </c>
+      <c r="H82">
+        <v>4.0214438438415527</v>
+      </c>
+      <c r="I82">
+        <v>22.023403167724609</v>
       </c>
       <c r="J82">
-        <v>16.924409866333008</v>
+        <v>31.896543502807617</v>
       </c>
       <c r="K82">
-        <v>16.549365997314453</v>
+        <v>30.614816665649414</v>
       </c>
       <c r="L82">
-        <v>0.5303921103477478</v>
+        <v>1.1711615324020386</v>
       </c>
       <c r="M82" t="s">
         <v>11</v>
       </c>
-      <c r="N82" t="s">
-        <v>11</v>
-      </c>
-      <c r="O82" t="s">
-        <v>11</v>
+      <c r="N82">
+        <v>15.095922470092773</v>
+      </c>
+      <c r="O82">
+        <v>1.2266260385513306</v>
       </c>
       <c r="P82" t="s">
         <v>11</v>
@@ -7638,14 +7645,14 @@
       <c r="Q82" t="s">
         <v>11</v>
       </c>
-      <c r="R82" t="s">
-        <v>11</v>
+      <c r="R82">
+        <v>-3.2343394756317139</v>
       </c>
       <c r="S82" t="b">
         <v>1</v>
       </c>
       <c r="T82">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U82" t="b">
         <v>1</v>
@@ -7654,13 +7661,13 @@
         <v>3</v>
       </c>
       <c r="W82">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="X82">
         <v>1</v>
       </c>
       <c r="Y82">
-        <v>84.10797119140625</v>
+        <v>88.420547485351562</v>
       </c>
       <c r="Z82" t="s">
         <v>11</v>
@@ -7680,13 +7687,13 @@
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -7697,32 +7704,32 @@
       <c r="F83" t="s">
         <v>17</v>
       </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" t="s">
-        <v>11</v>
+      <c r="G83">
+        <v>9.410944938659668</v>
+      </c>
+      <c r="H83">
+        <v>4.0214438438415527</v>
+      </c>
+      <c r="I83">
+        <v>22.023403167724609</v>
       </c>
       <c r="J83">
-        <v>16.174322128295898</v>
+        <v>30.347452163696289</v>
       </c>
       <c r="K83">
-        <v>16.549365997314453</v>
+        <v>30.614816665649414</v>
       </c>
       <c r="L83">
-        <v>0.5303921103477478</v>
+        <v>1.1711615324020386</v>
       </c>
       <c r="M83" t="s">
         <v>11</v>
       </c>
-      <c r="N83" t="s">
-        <v>11</v>
-      </c>
-      <c r="O83" t="s">
-        <v>11</v>
+      <c r="N83">
+        <v>15.095922470092773</v>
+      </c>
+      <c r="O83">
+        <v>1.2266260385513306</v>
       </c>
       <c r="P83" t="s">
         <v>11</v>
@@ -7730,14 +7737,14 @@
       <c r="Q83" t="s">
         <v>11</v>
       </c>
-      <c r="R83" t="s">
-        <v>11</v>
+      <c r="R83">
+        <v>-3.2343394756317139</v>
       </c>
       <c r="S83" t="b">
         <v>1</v>
       </c>
       <c r="T83">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U83" t="b">
         <v>1</v>
@@ -7746,13 +7753,13 @@
         <v>3</v>
       </c>
       <c r="W83">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="X83">
         <v>1</v>
       </c>
       <c r="Y83">
-        <v>84.09747314453125</v>
+        <v>88.430465698242188</v>
       </c>
       <c r="Z83" t="s">
         <v>11</v>
@@ -7772,13 +7779,13 @@
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -7789,32 +7796,32 @@
       <c r="F84" t="s">
         <v>17</v>
       </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" t="s">
-        <v>11</v>
+      <c r="G84">
+        <v>9.410944938659668</v>
+      </c>
+      <c r="H84">
+        <v>4.0214438438415527</v>
+      </c>
+      <c r="I84">
+        <v>22.023403167724609</v>
       </c>
       <c r="J84">
-        <v>15.13425350189209</v>
+        <v>29.600454330444336</v>
       </c>
       <c r="K84">
-        <v>15.288789749145508</v>
+        <v>30.614816665649414</v>
       </c>
       <c r="L84">
-        <v>0.21854658424854279</v>
+        <v>1.1711615324020386</v>
       </c>
       <c r="M84" t="s">
         <v>11</v>
       </c>
-      <c r="N84" t="s">
-        <v>11</v>
-      </c>
-      <c r="O84" t="s">
-        <v>11</v>
+      <c r="N84">
+        <v>15.095922470092773</v>
+      </c>
+      <c r="O84">
+        <v>1.2266260385513306</v>
       </c>
       <c r="P84" t="s">
         <v>11</v>
@@ -7822,14 +7829,14 @@
       <c r="Q84" t="s">
         <v>11</v>
       </c>
-      <c r="R84" t="s">
-        <v>11</v>
+      <c r="R84">
+        <v>-3.2343394756317139</v>
       </c>
       <c r="S84" t="b">
         <v>1</v>
       </c>
       <c r="T84">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U84" t="b">
         <v>1</v>
@@ -7838,16 +7845,16 @@
         <v>3</v>
       </c>
       <c r="W84">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="X84">
         <v>1</v>
       </c>
       <c r="Y84">
-        <v>83.948394775390625</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>11</v>
+        <v>88.430465698242188</v>
+      </c>
+      <c r="Z84">
+        <v>65.032012939453125</v>
       </c>
       <c r="AA84" t="s">
         <v>11</v>
@@ -7856,21 +7863,21 @@
         <v>11</v>
       </c>
       <c r="AC84" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD84" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
@@ -7881,32 +7888,32 @@
       <c r="F85" t="s">
         <v>17</v>
       </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" t="s">
-        <v>11</v>
+      <c r="G85">
+        <v>17.969993591308594</v>
+      </c>
+      <c r="H85">
+        <v>12.52141284942627</v>
+      </c>
+      <c r="I85">
+        <v>25.78947639465332</v>
       </c>
       <c r="J85">
-        <v>15.443325042724609</v>
+        <v>29.559486389160156</v>
       </c>
       <c r="K85">
-        <v>15.288789749145508</v>
+        <v>29.523340225219727</v>
       </c>
       <c r="L85">
-        <v>0.21854658424854279</v>
+        <v>0.50176417827606201</v>
       </c>
       <c r="M85" t="s">
         <v>11</v>
       </c>
-      <c r="N85" t="s">
-        <v>11</v>
-      </c>
-      <c r="O85" t="s">
-        <v>11</v>
+      <c r="N85">
+        <v>14.162744522094727</v>
+      </c>
+      <c r="O85">
+        <v>0.52119255065917969</v>
       </c>
       <c r="P85" t="s">
         <v>11</v>
@@ -7914,14 +7921,14 @@
       <c r="Q85" t="s">
         <v>11</v>
       </c>
-      <c r="R85" t="s">
-        <v>11</v>
+      <c r="R85">
+        <v>-4.167518138885498</v>
       </c>
       <c r="S85" t="b">
         <v>1</v>
       </c>
       <c r="T85">
-        <v>14469.114257812496</v>
+        <v>16141.126521381582</v>
       </c>
       <c r="U85" t="b">
         <v>1</v>
@@ -7930,13 +7937,13 @@
         <v>3</v>
       </c>
       <c r="W85">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="X85">
         <v>1</v>
       </c>
       <c r="Y85">
-        <v>84.257492065429688</v>
+        <v>88.4251708984375</v>
       </c>
       <c r="Z85" t="s">
         <v>11</v>
@@ -7948,42 +7955,2342 @@
         <v>11</v>
       </c>
       <c r="AC85" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AD85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86">
+        <v>17.969993591308594</v>
+      </c>
+      <c r="H86">
+        <v>12.52141284942627</v>
+      </c>
+      <c r="I86">
+        <v>25.78947639465332</v>
+      </c>
+      <c r="J86">
+        <v>30.006053924560547</v>
+      </c>
+      <c r="K86">
+        <v>29.523340225219727</v>
+      </c>
+      <c r="L86">
+        <v>0.50176417827606201</v>
+      </c>
+      <c r="M86" t="s">
+        <v>11</v>
+      </c>
+      <c r="N86">
+        <v>14.162744522094727</v>
+      </c>
+      <c r="O86">
+        <v>0.52119255065917969</v>
+      </c>
+      <c r="P86" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>11</v>
+      </c>
+      <c r="R86">
+        <v>-4.167518138885498</v>
+      </c>
+      <c r="S86" t="b">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U86" t="b">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>22</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+      <c r="Y86">
+        <v>88.4251708984375</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD86" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>104</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87">
+        <v>17.969993591308594</v>
+      </c>
+      <c r="H87">
+        <v>12.52141284942627</v>
+      </c>
+      <c r="I87">
+        <v>25.78947639465332</v>
+      </c>
+      <c r="J87">
+        <v>29.004480361938477</v>
+      </c>
+      <c r="K87">
+        <v>29.523340225219727</v>
+      </c>
+      <c r="L87">
+        <v>0.50176417827606201</v>
+      </c>
+      <c r="M87" t="s">
+        <v>11</v>
+      </c>
+      <c r="N87">
+        <v>14.162744522094727</v>
+      </c>
+      <c r="O87">
+        <v>0.52119255065917969</v>
+      </c>
+      <c r="P87" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>11</v>
+      </c>
+      <c r="R87">
+        <v>-4.167518138885498</v>
+      </c>
+      <c r="S87" t="b">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U87" t="b">
+        <v>1</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>20</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+      <c r="Y87">
+        <v>88.426948547363281</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>106</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88">
+        <v>27.003557205200195</v>
+      </c>
+      <c r="H88">
+        <v>18.862520217895508</v>
+      </c>
+      <c r="I88">
+        <v>38.658252716064453</v>
+      </c>
+      <c r="J88">
+        <v>29.341514587402344</v>
+      </c>
+      <c r="K88">
+        <v>29.259740829467773</v>
+      </c>
+      <c r="L88">
+        <v>0.44023615121841431</v>
+      </c>
+      <c r="M88" t="s">
+        <v>11</v>
+      </c>
+      <c r="N88">
+        <v>13.57518482208252</v>
+      </c>
+      <c r="O88">
+        <v>0.51762700080871582</v>
+      </c>
+      <c r="P88" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>11</v>
+      </c>
+      <c r="R88">
+        <v>-4.7550773620605469</v>
+      </c>
+      <c r="S88" t="b">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U88" t="b">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>20</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>88.128875732421875</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>106</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89">
+        <v>27.003557205200195</v>
+      </c>
+      <c r="H89">
+        <v>18.862520217895508</v>
+      </c>
+      <c r="I89">
+        <v>38.658252716064453</v>
+      </c>
+      <c r="J89">
+        <v>29.653354644775391</v>
+      </c>
+      <c r="K89">
+        <v>29.259740829467773</v>
+      </c>
+      <c r="L89">
+        <v>0.44023615121841431</v>
+      </c>
+      <c r="M89" t="s">
+        <v>11</v>
+      </c>
+      <c r="N89">
+        <v>13.57518482208252</v>
+      </c>
+      <c r="O89">
+        <v>0.51762700080871582</v>
+      </c>
+      <c r="P89" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>11</v>
+      </c>
+      <c r="R89">
+        <v>-4.7550773620605469</v>
+      </c>
+      <c r="S89" t="b">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U89" t="b">
+        <v>1</v>
+      </c>
+      <c r="V89">
+        <v>3</v>
+      </c>
+      <c r="W89">
+        <v>23</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+      <c r="Y89">
+        <v>88.132827758789062</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90">
+        <v>27.003557205200195</v>
+      </c>
+      <c r="H90">
+        <v>18.862520217895508</v>
+      </c>
+      <c r="I90">
+        <v>38.658252716064453</v>
+      </c>
+      <c r="J90">
+        <v>28.78434944152832</v>
+      </c>
+      <c r="K90">
+        <v>29.259740829467773</v>
+      </c>
+      <c r="L90">
+        <v>0.44023615121841431</v>
+      </c>
+      <c r="M90" t="s">
+        <v>11</v>
+      </c>
+      <c r="N90">
+        <v>13.57518482208252</v>
+      </c>
+      <c r="O90">
+        <v>0.51762700080871582</v>
+      </c>
+      <c r="P90" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>11</v>
+      </c>
+      <c r="R90">
+        <v>-4.7550773620605469</v>
+      </c>
+      <c r="S90" t="b">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U90" t="b">
+        <v>1</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="W90">
+        <v>21</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>87.983810424804688</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91">
+        <v>16.118537902832031</v>
+      </c>
+      <c r="K91">
+        <v>16.174312591552734</v>
+      </c>
+      <c r="L91">
+        <v>7.5906984508037567E-2</v>
+      </c>
+      <c r="M91" t="s">
+        <v>11</v>
+      </c>
+      <c r="N91" t="s">
+        <v>11</v>
+      </c>
+      <c r="O91" t="s">
+        <v>11</v>
+      </c>
+      <c r="P91" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>11</v>
+      </c>
+      <c r="R91" t="s">
+        <v>11</v>
+      </c>
+      <c r="S91" t="b">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U91" t="b">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>3</v>
+      </c>
+      <c r="W91">
+        <v>9</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Y91">
+        <v>84.10797119140625</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92">
+        <v>16.143644332885742</v>
+      </c>
+      <c r="K92">
+        <v>16.174312591552734</v>
+      </c>
+      <c r="L92">
+        <v>7.5906984508037567E-2</v>
+      </c>
+      <c r="M92" t="s">
+        <v>11</v>
+      </c>
+      <c r="N92" t="s">
+        <v>11</v>
+      </c>
+      <c r="O92" t="s">
+        <v>11</v>
+      </c>
+      <c r="P92" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>11</v>
+      </c>
+      <c r="R92" t="s">
+        <v>11</v>
+      </c>
+      <c r="S92" t="b">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U92" t="b">
+        <v>1</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>9</v>
+      </c>
+      <c r="X92">
+        <v>1</v>
+      </c>
+      <c r="Y92">
+        <v>83.958892822265625</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93">
+        <v>16.26075553894043</v>
+      </c>
+      <c r="K93">
+        <v>16.174312591552734</v>
+      </c>
+      <c r="L93">
+        <v>7.5906984508037567E-2</v>
+      </c>
+      <c r="M93" t="s">
+        <v>11</v>
+      </c>
+      <c r="N93" t="s">
+        <v>11</v>
+      </c>
+      <c r="O93" t="s">
+        <v>11</v>
+      </c>
+      <c r="P93" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>11</v>
+      </c>
+      <c r="R93" t="s">
+        <v>11</v>
+      </c>
+      <c r="S93" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U93" t="b">
+        <v>1</v>
+      </c>
+      <c r="V93">
+        <v>3</v>
+      </c>
+      <c r="W93">
+        <v>9</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+      <c r="Y93">
+        <v>84.09747314453125</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94">
+        <v>15.776762008666992</v>
+      </c>
+      <c r="K94">
+        <v>15.518894195556641</v>
+      </c>
+      <c r="L94">
+        <v>0.36468082666397095</v>
+      </c>
+      <c r="M94" t="s">
+        <v>11</v>
+      </c>
+      <c r="N94" t="s">
+        <v>11</v>
+      </c>
+      <c r="O94" t="s">
+        <v>11</v>
+      </c>
+      <c r="P94" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>11</v>
+      </c>
+      <c r="R94" t="s">
+        <v>11</v>
+      </c>
+      <c r="S94" t="b">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U94" t="b">
+        <v>1</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94">
+        <v>11</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
+      </c>
+      <c r="Y94">
+        <v>83.948394775390625</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95">
+        <v>15.261025428771973</v>
+      </c>
+      <c r="K95">
+        <v>15.518894195556641</v>
+      </c>
+      <c r="L95">
+        <v>0.36468082666397095</v>
+      </c>
+      <c r="M95" t="s">
+        <v>11</v>
+      </c>
+      <c r="N95" t="s">
+        <v>11</v>
+      </c>
+      <c r="O95" t="s">
+        <v>11</v>
+      </c>
+      <c r="P95" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>11</v>
+      </c>
+      <c r="R95" t="s">
+        <v>11</v>
+      </c>
+      <c r="S95" t="b">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U95" t="b">
+        <v>1</v>
+      </c>
+      <c r="V95">
+        <v>3</v>
+      </c>
+      <c r="W95">
+        <v>9</v>
+      </c>
+      <c r="X95">
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <v>84.257492065429688</v>
+      </c>
+      <c r="Z95">
+        <v>64.137802124023438</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96">
+        <v>15.50410270690918</v>
+      </c>
+      <c r="K96">
+        <v>15.360595703125</v>
+      </c>
+      <c r="L96">
+        <v>0.14097651839256287</v>
+      </c>
+      <c r="M96" t="s">
+        <v>11</v>
+      </c>
+      <c r="N96" t="s">
+        <v>11</v>
+      </c>
+      <c r="O96" t="s">
+        <v>11</v>
+      </c>
+      <c r="P96" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>11</v>
+      </c>
+      <c r="R96" t="s">
+        <v>11</v>
+      </c>
+      <c r="S96" t="b">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U96" t="b">
+        <v>1</v>
+      </c>
+      <c r="V96">
+        <v>3</v>
+      </c>
+      <c r="W96">
+        <v>8</v>
+      </c>
+      <c r="X96">
+        <v>1</v>
+      </c>
+      <c r="Y96">
+        <v>84.10296630859375</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97">
+        <v>15.355390548706055</v>
+      </c>
+      <c r="K97">
+        <v>15.360595703125</v>
+      </c>
+      <c r="L97">
+        <v>0.14097651839256287</v>
+      </c>
+      <c r="M97" t="s">
+        <v>11</v>
+      </c>
+      <c r="N97" t="s">
+        <v>11</v>
+      </c>
+      <c r="O97" t="s">
+        <v>11</v>
+      </c>
+      <c r="P97" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>11</v>
+      </c>
+      <c r="R97" t="s">
+        <v>11</v>
+      </c>
+      <c r="S97" t="b">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U97" t="b">
+        <v>1</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>7</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+      <c r="Y97">
+        <v>84.10296630859375</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98">
+        <v>15.222293853759766</v>
+      </c>
+      <c r="K98">
+        <v>15.360595703125</v>
+      </c>
+      <c r="L98">
+        <v>0.14097651839256287</v>
+      </c>
+      <c r="M98" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" t="s">
+        <v>11</v>
+      </c>
+      <c r="O98" t="s">
+        <v>11</v>
+      </c>
+      <c r="P98" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>11</v>
+      </c>
+      <c r="R98" t="s">
+        <v>11</v>
+      </c>
+      <c r="S98" t="b">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U98" t="b">
+        <v>1</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>7</v>
+      </c>
+      <c r="X98">
+        <v>1</v>
+      </c>
+      <c r="Y98">
+        <v>84.104988098144531</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99">
+        <v>15.492032051086426</v>
+      </c>
+      <c r="K99">
+        <v>15.684555053710938</v>
+      </c>
+      <c r="L99">
+        <v>0.27226796746253967</v>
+      </c>
+      <c r="M99" t="s">
+        <v>11</v>
+      </c>
+      <c r="N99" t="s">
+        <v>11</v>
+      </c>
+      <c r="O99" t="s">
+        <v>11</v>
+      </c>
+      <c r="P99" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>11</v>
+      </c>
+      <c r="R99" t="s">
+        <v>11</v>
+      </c>
+      <c r="S99" t="b">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U99" t="b">
+        <v>1</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>6</v>
+      </c>
+      <c r="X99">
+        <v>1</v>
+      </c>
+      <c r="Y99">
+        <v>84.104988098144531</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100">
+        <v>15.877077102661133</v>
+      </c>
+      <c r="K100">
+        <v>15.684555053710938</v>
+      </c>
+      <c r="L100">
+        <v>0.27226796746253967</v>
+      </c>
+      <c r="M100" t="s">
+        <v>11</v>
+      </c>
+      <c r="N100" t="s">
+        <v>11</v>
+      </c>
+      <c r="O100" t="s">
+        <v>11</v>
+      </c>
+      <c r="P100" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>11</v>
+      </c>
+      <c r="R100" t="s">
+        <v>11</v>
+      </c>
+      <c r="S100" t="b">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U100" t="b">
+        <v>1</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="W100">
+        <v>9</v>
+      </c>
+      <c r="X100">
+        <v>1</v>
+      </c>
+      <c r="Y100">
+        <v>83.662200927734375</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101">
+        <v>18.121929168701172</v>
+      </c>
+      <c r="H101">
+        <v>9.8997316360473633</v>
+      </c>
+      <c r="I101">
+        <v>33.173049926757812</v>
+      </c>
+      <c r="J101">
+        <v>29.939447402954102</v>
+      </c>
+      <c r="K101">
+        <v>30.69996452331543</v>
+      </c>
+      <c r="L101">
+        <v>0.69249415397644043</v>
+      </c>
+      <c r="M101" t="s">
+        <v>11</v>
+      </c>
+      <c r="N101">
+        <v>14.15059757232666</v>
+      </c>
+      <c r="O101">
+        <v>0.87227517366409302</v>
+      </c>
+      <c r="P101" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>11</v>
+      </c>
+      <c r="R101">
+        <v>-4.1796646118164062</v>
+      </c>
+      <c r="S101" t="b">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U101" t="b">
+        <v>1</v>
+      </c>
+      <c r="V101">
+        <v>3</v>
+      </c>
+      <c r="W101">
+        <v>22</v>
+      </c>
+      <c r="X101">
+        <v>1</v>
+      </c>
+      <c r="Y101">
+        <v>88.281974792480469</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102">
+        <v>18.121929168701172</v>
+      </c>
+      <c r="H102">
+        <v>9.8997316360473633</v>
+      </c>
+      <c r="I102">
+        <v>33.173049926757812</v>
+      </c>
+      <c r="J102">
+        <v>31.294136047363281</v>
+      </c>
+      <c r="K102">
+        <v>30.69996452331543</v>
+      </c>
+      <c r="L102">
+        <v>0.69249415397644043</v>
+      </c>
+      <c r="M102" t="s">
+        <v>11</v>
+      </c>
+      <c r="N102">
+        <v>14.15059757232666</v>
+      </c>
+      <c r="O102">
+        <v>0.87227517366409302</v>
+      </c>
+      <c r="P102" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>11</v>
+      </c>
+      <c r="R102">
+        <v>-4.1796646118164062</v>
+      </c>
+      <c r="S102" t="b">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U102" t="b">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>23</v>
+      </c>
+      <c r="X102">
+        <v>1</v>
+      </c>
+      <c r="Y102">
+        <v>88.281974792480469</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103">
+        <v>18.121929168701172</v>
+      </c>
+      <c r="H103">
+        <v>9.8997316360473633</v>
+      </c>
+      <c r="I103">
+        <v>33.173049926757812</v>
+      </c>
+      <c r="J103">
+        <v>30.866308212280273</v>
+      </c>
+      <c r="K103">
+        <v>30.69996452331543</v>
+      </c>
+      <c r="L103">
+        <v>0.69249415397644043</v>
+      </c>
+      <c r="M103" t="s">
+        <v>11</v>
+      </c>
+      <c r="N103">
+        <v>14.15059757232666</v>
+      </c>
+      <c r="O103">
+        <v>0.87227517366409302</v>
+      </c>
+      <c r="P103" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>11</v>
+      </c>
+      <c r="R103">
+        <v>-4.1796646118164062</v>
+      </c>
+      <c r="S103" t="b">
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U103" t="b">
+        <v>1</v>
+      </c>
+      <c r="V103">
+        <v>3</v>
+      </c>
+      <c r="W103">
+        <v>23</v>
+      </c>
+      <c r="X103">
+        <v>1</v>
+      </c>
+      <c r="Y103">
+        <v>88.420547485351562</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104">
+        <v>14.292178153991699</v>
+      </c>
+      <c r="H104">
+        <v>11.887467384338379</v>
+      </c>
+      <c r="I104">
+        <v>17.18333625793457</v>
+      </c>
+      <c r="J104">
+        <v>29.685998916625977</v>
+      </c>
+      <c r="K104">
+        <v>29.781898498535156</v>
+      </c>
+      <c r="L104">
+        <v>0.15125724673271179</v>
+      </c>
+      <c r="M104" t="s">
+        <v>11</v>
+      </c>
+      <c r="N104">
+        <v>14.493108749389648</v>
+      </c>
+      <c r="O104">
+        <v>0.26578444242477417</v>
+      </c>
+      <c r="P104" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>11</v>
+      </c>
+      <c r="R104">
+        <v>-3.8371539115905762</v>
+      </c>
+      <c r="S104" t="b">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U104" t="b">
+        <v>1</v>
+      </c>
+      <c r="V104">
+        <v>3</v>
+      </c>
+      <c r="W104">
+        <v>21</v>
+      </c>
+      <c r="X104">
+        <v>1</v>
+      </c>
+      <c r="Y104">
+        <v>88.420547485351562</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105">
+        <v>14.292178153991699</v>
+      </c>
+      <c r="H105">
+        <v>11.887467384338379</v>
+      </c>
+      <c r="I105">
+        <v>17.18333625793457</v>
+      </c>
+      <c r="J105">
+        <v>29.956264495849609</v>
+      </c>
+      <c r="K105">
+        <v>29.781898498535156</v>
+      </c>
+      <c r="L105">
+        <v>0.15125724673271179</v>
+      </c>
+      <c r="M105" t="s">
+        <v>11</v>
+      </c>
+      <c r="N105">
+        <v>14.493108749389648</v>
+      </c>
+      <c r="O105">
+        <v>0.26578444242477417</v>
+      </c>
+      <c r="P105" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>11</v>
+      </c>
+      <c r="R105">
+        <v>-3.8371539115905762</v>
+      </c>
+      <c r="S105" t="b">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U105" t="b">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>3</v>
+      </c>
+      <c r="W105">
+        <v>22</v>
+      </c>
+      <c r="X105">
+        <v>1</v>
+      </c>
+      <c r="Y105">
+        <v>88.579505920410156</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106">
+        <v>14.292178153991699</v>
+      </c>
+      <c r="H106">
+        <v>11.887467384338379</v>
+      </c>
+      <c r="I106">
+        <v>17.18333625793457</v>
+      </c>
+      <c r="J106">
+        <v>29.70343017578125</v>
+      </c>
+      <c r="K106">
+        <v>29.781898498535156</v>
+      </c>
+      <c r="L106">
+        <v>0.15125724673271179</v>
+      </c>
+      <c r="M106" t="s">
+        <v>11</v>
+      </c>
+      <c r="N106">
+        <v>14.493108749389648</v>
+      </c>
+      <c r="O106">
+        <v>0.26578444242477417</v>
+      </c>
+      <c r="P106" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>11</v>
+      </c>
+      <c r="R106">
+        <v>-3.8371539115905762</v>
+      </c>
+      <c r="S106" t="b">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>16141.126521381582</v>
+      </c>
+      <c r="U106" t="b">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>3</v>
+      </c>
+      <c r="W106">
+        <v>20</v>
+      </c>
+      <c r="X106">
+        <v>1</v>
+      </c>
+      <c r="Y106">
+        <v>88.579505920410156</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107">
+        <v>16.924409866333008</v>
+      </c>
+      <c r="K107">
+        <v>16.549365997314453</v>
+      </c>
+      <c r="L107">
+        <v>0.5303921103477478</v>
+      </c>
+      <c r="M107" t="s">
+        <v>11</v>
+      </c>
+      <c r="N107" t="s">
+        <v>11</v>
+      </c>
+      <c r="O107" t="s">
+        <v>11</v>
+      </c>
+      <c r="P107" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>11</v>
+      </c>
+      <c r="R107" t="s">
+        <v>11</v>
+      </c>
+      <c r="S107" t="b">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U107" t="b">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>3</v>
+      </c>
+      <c r="W107">
+        <v>10</v>
+      </c>
+      <c r="X107">
+        <v>1</v>
+      </c>
+      <c r="Y107">
+        <v>84.10797119140625</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108">
+        <v>16.174322128295898</v>
+      </c>
+      <c r="K108">
+        <v>16.549365997314453</v>
+      </c>
+      <c r="L108">
+        <v>0.5303921103477478</v>
+      </c>
+      <c r="M108" t="s">
+        <v>11</v>
+      </c>
+      <c r="N108" t="s">
+        <v>11</v>
+      </c>
+      <c r="O108" t="s">
+        <v>11</v>
+      </c>
+      <c r="P108" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>11</v>
+      </c>
+      <c r="R108" t="s">
+        <v>11</v>
+      </c>
+      <c r="S108" t="b">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U108" t="b">
+        <v>1</v>
+      </c>
+      <c r="V108">
+        <v>3</v>
+      </c>
+      <c r="W108">
+        <v>9</v>
+      </c>
+      <c r="X108">
+        <v>1</v>
+      </c>
+      <c r="Y108">
+        <v>84.09747314453125</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109">
+        <v>15.13425350189209</v>
+      </c>
+      <c r="K109">
+        <v>15.288789749145508</v>
+      </c>
+      <c r="L109">
+        <v>0.21854658424854279</v>
+      </c>
+      <c r="M109" t="s">
+        <v>11</v>
+      </c>
+      <c r="N109" t="s">
+        <v>11</v>
+      </c>
+      <c r="O109" t="s">
+        <v>11</v>
+      </c>
+      <c r="P109" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>11</v>
+      </c>
+      <c r="R109" t="s">
+        <v>11</v>
+      </c>
+      <c r="S109" t="b">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U109" t="b">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>3</v>
+      </c>
+      <c r="W109">
+        <v>8</v>
+      </c>
+      <c r="X109">
+        <v>1</v>
+      </c>
+      <c r="Y109">
+        <v>83.948394775390625</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110">
+        <v>15.443325042724609</v>
+      </c>
+      <c r="K110">
+        <v>15.288789749145508</v>
+      </c>
+      <c r="L110">
+        <v>0.21854658424854279</v>
+      </c>
+      <c r="M110" t="s">
+        <v>11</v>
+      </c>
+      <c r="N110" t="s">
+        <v>11</v>
+      </c>
+      <c r="O110" t="s">
+        <v>11</v>
+      </c>
+      <c r="P110" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>11</v>
+      </c>
+      <c r="R110" t="s">
+        <v>11</v>
+      </c>
+      <c r="S110" t="b">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>14469.114257812496</v>
+      </c>
+      <c r="U110" t="b">
+        <v>1</v>
+      </c>
+      <c r="V110">
+        <v>3</v>
+      </c>
+      <c r="W110">
+        <v>8</v>
+      </c>
+      <c r="X110">
+        <v>1</v>
+      </c>
+      <c r="Y110">
+        <v>84.257492065429688</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>125</v>
       </c>
-      <c r="B90" t="s">
-        <v>114</v>
+      <c r="B115" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
